--- a/dev/write_files/habe_totaldemands.xlsx
+++ b/dev/write_files/habe_totaldemands.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
   <si>
     <t>a30</t>
   </si>
@@ -64,9 +64,6 @@
     <t>a320004</t>
   </si>
   <si>
-    <t>a320005</t>
-  </si>
-  <si>
     <t>a33</t>
   </si>
   <si>
@@ -1612,13 +1609,7 @@
     <t>a810002</t>
   </si>
   <si>
-    <t>m5111</t>
-  </si>
-  <si>
-    <t>m511104</t>
-  </si>
-  <si>
-    <t>m511105</t>
+    <t>m5111a</t>
   </si>
   <si>
     <t>m5112</t>
@@ -1639,13 +1630,7 @@
     <t>m511305</t>
   </si>
   <si>
-    <t>m5114</t>
-  </si>
-  <si>
-    <t>m511409</t>
-  </si>
-  <si>
-    <t>m511410</t>
+    <t>m5114a</t>
   </si>
   <si>
     <t>m5115</t>
@@ -1654,49 +1639,13 @@
     <t>m5116</t>
   </si>
   <si>
-    <t>m5117</t>
-  </si>
-  <si>
-    <t>m511703</t>
-  </si>
-  <si>
     <t>m511711</t>
   </si>
   <si>
-    <t>m5118</t>
-  </si>
-  <si>
-    <t>m511805</t>
-  </si>
-  <si>
-    <t>m511807</t>
-  </si>
-  <si>
-    <t>m5119</t>
-  </si>
-  <si>
-    <t>m511901</t>
-  </si>
-  <si>
-    <t>m511902</t>
-  </si>
-  <si>
-    <t>m511903</t>
-  </si>
-  <si>
-    <t>m511904</t>
-  </si>
-  <si>
-    <t>m511905</t>
-  </si>
-  <si>
-    <t>m511906</t>
-  </si>
-  <si>
-    <t>m511907</t>
-  </si>
-  <si>
-    <t>m511908</t>
+    <t>m5117a</t>
+  </si>
+  <si>
+    <t>m5118a</t>
   </si>
   <si>
     <t>m5121</t>
@@ -2102,7 +2051,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B578"/>
+  <dimension ref="A1:B561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2118,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27107366.01156221</v>
+        <v>25924868.50186311</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2126,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9644401.019047745</v>
+        <v>9260644.896297894</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2134,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9644401.019047745</v>
+        <v>9260644.896297894</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2142,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9644401.019047745</v>
+        <v>9260644.896297894</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2150,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3830243.539737495</v>
+        <v>3728911.019690943</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2158,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>726513.870647</v>
+        <v>646824.9222282604</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2166,7 +2115,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>740119.4368525796</v>
+        <v>804862.0275748213</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2174,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4306301.260966877</v>
+        <v>3988766.851327116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2182,7 +2131,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>41222.910842068</v>
+        <v>91280.07546906581</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2190,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11236935.28584349</v>
+        <v>11393201.80496716</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2198,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11236935.28584349</v>
+        <v>11393201.80496716</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2206,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11236935.28584349</v>
+        <v>11393201.80496716</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2214,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>443308.0333104639</v>
+        <v>327607.4098374131</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2222,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1562380.081620753</v>
+        <v>1689370.381695479</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2230,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3913083.916818587</v>
+        <v>5080091.378110955</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2238,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3185242.149209769</v>
+        <v>4296132.635320325</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2246,7 +2195,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2132921.10488026</v>
+        <v>5271021.800606976</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2254,7 +2203,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6226029.706670585</v>
+        <v>5271021.800606976</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2262,7 +2211,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6226029.706670585</v>
+        <v>5271021.800606976</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2270,7 +2219,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6226029.706670585</v>
+        <v>5201857.231442169</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2278,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6107608.519829568</v>
+        <v>69164.5691642538</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2286,7 +2235,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>118421.1868416549</v>
+        <v>1733096.464314365</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2294,7 +2243,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1747963.01988959</v>
+        <v>1733096.464314365</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2302,7 +2251,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1747963.01988959</v>
+        <v>1733096.464314365</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2310,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1747963.01988959</v>
+        <v>1733096.464314365</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2318,7 +2267,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1747963.01988959</v>
+        <v>654834.1373400301</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2326,7 +2275,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>606751.82259347</v>
+        <v>986135.3452036428</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2334,7 +2283,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1024142.411779092</v>
+        <v>92126.98177020109</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2342,7 +2291,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>117068.7855169492</v>
+        <v>5861486.721890667</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2350,7 +2299,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6019438.558228706</v>
+        <v>1452367.206034869</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2358,7 +2307,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1462104.768052938</v>
+        <v>1452367.206034869</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2366,7 +2315,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1462104.768052938</v>
+        <v>1452367.206034869</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2374,7 +2323,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1462104.768052938</v>
+        <v>879864.6899531796</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2382,7 +2331,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>856079.9258695467</v>
+        <v>572502.5160818514</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2390,7 +2339,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>606024.8421832247</v>
+        <v>1961093.91327612</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2398,7 +2347,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1968236.287353748</v>
+        <v>1961093.91327612</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2406,7 +2355,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1968236.287353748</v>
+        <v>655473.1889190658</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2414,7 +2363,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>646113.1350758664</v>
+        <v>171604.2030752813</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2422,7 +2371,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>143548.706400981</v>
+        <v>62169.7113925872</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2430,7 +2379,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>53875.3854505699</v>
+        <v>160531.4868647398</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2438,7 +2387,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>197164.1071464008</v>
+        <v>261167.7875862636</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2446,7 +2395,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>251524.9360778516</v>
+        <v>1115010.373873243</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2454,7 +2403,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1120500.983771133</v>
+        <v>1108802.474268686</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2462,7 +2411,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1120250.225437811</v>
+        <v>6207.8996044501</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2470,7 +2419,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>250.7583333332</v>
+        <v>190610.3504847414</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2478,7 +2427,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>201622.168506796</v>
+        <v>62089.1198031157</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2486,7 +2435,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>71534.670200971</v>
+        <v>94504.7940757824</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2494,7 +2443,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>93734.1675558187</v>
+        <v>10181.6682757251</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2502,7 +2451,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>22744.7285716365</v>
+        <v>23834.7683302047</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2510,7 +2459,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>13608.6021784195</v>
+        <v>745048.1685118984</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2518,7 +2467,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>747854.0242940877</v>
+        <v>745048.1685118984</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2526,7 +2475,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>747854.0242940877</v>
+        <v>745048.1685118984</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2534,7 +2483,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>747854.0242940877</v>
+        <v>124527.2769557164</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2542,7 +2491,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>126970.0412135755</v>
+        <v>396934.6029601794</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2550,7 +2499,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>380114.3605154882</v>
+        <v>11822.7884442306</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2558,7 +2507,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>13099.947222199</v>
+        <v>32077.9197174602</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2566,7 +2515,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>33971.8828834698</v>
+        <v>61449.7894787589</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2574,7 +2523,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>63656.63256862029</v>
+        <v>118235.7909552067</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2582,7 +2531,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>130041.159890489</v>
+        <v>1702977.434067039</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2590,7 +2539,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1841243.478528454</v>
+        <v>251584.5858597585</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2598,7 +2547,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>328498.9106722778</v>
+        <v>251584.5858597585</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2606,7 +2555,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>328498.9106722778</v>
+        <v>251584.5858597585</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2614,7 +2563,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>328498.9106722778</v>
+        <v>1451392.848207162</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2622,7 +2571,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1512744.567855691</v>
+        <v>68017.2961412888</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2630,7 +2579,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>76355.6849528094</v>
+        <v>23916.5634854142</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2638,7 +2587,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>25169.9340427806</v>
+        <v>44100.7326558463</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2646,7 +2595,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>51185.75090998531</v>
+        <v>29230.7855028097</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2654,7 +2603,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>27493.0730485786</v>
+        <v>29230.7855028097</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2662,7 +2611,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>27493.0730485786</v>
+        <v>679705.9727937849</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2670,7 +2619,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>764069.0325127231</v>
+        <v>353919.3447023434</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2678,7 +2627,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>412580.1042642715</v>
+        <v>102481.4209591809</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2686,7 +2635,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>104304.8775457782</v>
+        <v>134648.743092279</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2694,7 +2643,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>149144.3455998103</v>
+        <v>49009.5191786619</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2702,7 +2651,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>59231.8028572997</v>
+        <v>13674.8726393102</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2710,7 +2659,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>13773.9910005835</v>
+        <v>17542.2180720635</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2718,7 +2667,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>16691.1176163767</v>
+        <v>4420.1650893415</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2726,7 +2675,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5193.830916122099</v>
+        <v>4009.6890611823</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2734,7 +2683,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3148.9627125158</v>
+        <v>97269.26295566741</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2742,7 +2691,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>87410.22871375829</v>
+        <v>40885.8664042131</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2750,7 +2699,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>33126.7660326333</v>
+        <v>56383.3965514072</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2758,7 +2707,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>54283.4626811418</v>
+        <v>70101.5116721442</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2766,7 +2715,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>64864.8519396004</v>
+        <v>70101.5116721442</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2774,7 +2723,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>64864.8519396004</v>
+        <v>61720.4886150913</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2782,7 +2731,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>53153.3924359078</v>
+        <v>61720.4886150913</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2790,7 +2739,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>53153.3924359078</v>
+        <v>256584.7115036067</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2798,7 +2747,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>222439.9743538924</v>
+        <v>55958.6113661718</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2806,7 +2755,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>48966.85912426509</v>
+        <v>47670.3154910082</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2814,7 +2763,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>36972.4903174904</v>
+        <v>25044.5104445894</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2822,7 +2771,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>20185.1080469152</v>
+        <v>2839.0447703305</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2830,7 +2779,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2089.1277557955</v>
+        <v>9738.182472348799</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2838,7 +2787,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>8951.428778339599</v>
+        <v>115334.0469590246</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2846,7 +2795,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>105274.9603310333</v>
+        <v>188762.819023068</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2854,7 +2803,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>216958.329898341</v>
+        <v>29439.5181023815</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2862,7 +2811,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>28075.2377972074</v>
+        <v>29676.3153007053</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2870,7 +2819,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>34518.9283376228</v>
+        <v>129646.9856200694</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2878,7 +2827,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>154364.1637636559</v>
+        <v>54575546.59130539</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2886,7 +2835,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>53356155.44799009</v>
+        <v>6767126.68582917</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2894,7 +2843,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6514598.653325194</v>
+        <v>6181141.792929105</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2902,7 +2851,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5956812.416901045</v>
+        <v>1057449.131767347</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2910,7 +2859,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>993716.6009030076</v>
+        <v>7361.436888645299</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2918,7 +2867,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6741.442436415</v>
+        <v>19358.6163389981</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2926,7 +2875,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>16369.6617210497</v>
+        <v>43855.9940026758</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2934,7 +2883,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>36280.0166023715</v>
+        <v>448103.1234104093</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2942,7 +2891,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>441284.9810245644</v>
+        <v>28832.4549974995</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2950,7 +2899,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>46228.0191056988</v>
+        <v>8993.438550824299</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2958,7 +2907,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7335.470580504</v>
+        <v>4857.0619470048</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2966,7 +2915,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3487.4750295541</v>
+        <v>12312.318239741</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2974,7 +2923,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>12392.4150749111</v>
+        <v>1520115.908655863</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2982,7 +2931,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1378172.34273243</v>
+        <v>8937.525652441</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2990,7 +2939,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>8521.2966951037</v>
+        <v>2723.7922001403</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2998,7 +2947,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1635.0202320313</v>
+        <v>9434.661706934701</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3006,7 +2955,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>8133.6636443489</v>
+        <v>543.1002972355</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3014,7 +2963,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>217.0601571965</v>
+        <v>1259.8688797084</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3022,7 +2971,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1513.5217349314</v>
+        <v>11781.071195618</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3030,7 +2979,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>11824.5775878988</v>
+        <v>819.7868429337</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3038,7 +2987,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>903.5245959214001</v>
+        <v>4412.9274828237</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3046,7 +2995,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>4129.610917711</v>
+        <v>16300.4219503895</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3054,7 +3003,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>14005.1692484127</v>
+        <v>7679.147481821</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3062,7 +3011,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6887.099758045</v>
+        <v>710.3322817748001</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3070,7 +3019,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>489.5653593885</v>
+        <v>1163.6643770482</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3078,7 +3027,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1191.5298561332</v>
+        <v>853.4575379578999</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3086,7 +3035,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>549.3124514223</v>
+        <v>8895.307641497699</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3094,7 +3043,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>9430.468749757199</v>
+        <v>107875.2522817386</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3102,7 +3051,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>126798.7511154268</v>
+        <v>31569.5126117318</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3110,7 +3059,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>30321.2675305953</v>
+        <v>33011.9061283658</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3118,7 +3067,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>38639.7812888653</v>
+        <v>18975.7040033998</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3126,7 +3075,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>16332.0686133815</v>
+        <v>21555.7340109067</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3134,7 +3083,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>24109.0508902789</v>
+        <v>1040941.134266423</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3142,7 +3091,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>959162.4122987346</v>
+        <v>72371.27131758579</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3150,7 +3099,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>57897.24929937199</v>
+        <v>45536.7593448985</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3158,7 +3107,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>37299.26174297649</v>
+        <v>16488.5966841317</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3166,7 +3115,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>15217.7719293585</v>
+        <v>9793.614960204999</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3174,7 +3123,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>10152.7329934655</v>
+        <v>10755.9041472555</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3182,7 +3131,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>9583.5459994066</v>
+        <v>3374.3120169681</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3190,7 +3139,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>3442.2936337921</v>
+        <v>33280.2929776912</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3198,7 +3147,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>29057.0060947669</v>
+        <v>11756.3612042058</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3206,7 +3155,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>12343.8126677245</v>
+        <v>88865.51031371718</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3214,7 +3163,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>93385.69988874221</v>
+        <v>8691.4424022884</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3222,7 +3171,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>10230.2192901335</v>
+        <v>161508.2471935992</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3230,7 +3179,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>149308.3162082929</v>
+        <v>6261.775489857901</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3238,7 +3187,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5758.6335682834</v>
+        <v>1661.2077547693</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3246,7 +3195,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1083.2302652926</v>
+        <v>389.6873722863</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3254,7 +3203,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>494.1755741925</v>
+        <v>3298.5137005144</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3262,7 +3211,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>3289.175204330299</v>
+        <v>4925.2072663299</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3270,7 +3219,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>4288.4323643019</v>
+        <v>566247.5917585518</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3278,7 +3227,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>610493.9462250466</v>
+        <v>2913.0855896192</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3286,7 +3235,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3722.3597896504</v>
+        <v>21549.0073335034</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3294,7 +3243,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>21616.8713012093</v>
+        <v>15594.1131265109</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3302,7 +3251,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>16088.1616787959</v>
+        <v>26214.2213800131</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3310,7 +3259,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>21218.9263627885</v>
+        <v>6600.5918929203</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3318,7 +3267,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5162.177482816601</v>
+        <v>17517.2789309422</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3326,7 +3275,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>17060.3957771812</v>
+        <v>6630.108513865501</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3334,7 +3283,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7487.7831975187</v>
+        <v>6683.8126271744</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3342,7 +3291,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6520.18595491</v>
+        <v>7364.364875575</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3350,7 +3299,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>8198.289279941599</v>
+        <v>7505.2364324431</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3358,7 +3307,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>8691.654805009699</v>
+        <v>4518.6741970971</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3366,7 +3315,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5109.0523263543</v>
+        <v>1940.546519116</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3374,7 +3323,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>2059.2923423997</v>
+        <v>2544.1929848693</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3382,7 +3331,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1995.1892644401</v>
+        <v>767469.6990774819</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3390,7 +3339,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>777276.0046291421</v>
+        <v>16417.2059842253</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3398,7 +3347,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>14200.8338211036</v>
+        <v>6021.122840665501</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3406,7 +3355,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5582.6857759808</v>
+        <v>19039.2275618517</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3414,7 +3363,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>22043.4551485189</v>
+        <v>8042.1434184131</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3422,7 +3371,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7723.7464210512</v>
+        <v>14635.054526756</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3430,7 +3379,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>14723.8570528076</v>
+        <v>3922.2244164923</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3438,7 +3387,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>3679.7845200637</v>
+        <v>16345.7540730271</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3446,7 +3395,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>18559.8453181616</v>
+        <v>6225.6638480783</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3454,7 +3403,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6459.7748513545</v>
+        <v>559.5514409780001</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3462,7 +3411,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>505.0709031335</v>
+        <v>22665.7517510057</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3470,7 +3419,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>22393.0965411748</v>
+        <v>20225.5085389801</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3478,7 +3427,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>23012.7234326599</v>
+        <v>632.9046643452</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3486,7 +3435,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>972.7048793333</v>
+        <v>12359.8393763968</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3494,7 +3443,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10382.2676063193</v>
+        <v>32557.6112073765</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3502,7 +3451,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>25699.6463856599</v>
+        <v>8567.277724927999</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3510,7 +3459,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>9038.789579808701</v>
+        <v>417240.0094118789</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3518,7 +3467,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>413653.4835547127</v>
+        <v>10350.506824964</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3526,7 +3475,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7923.416704286001</v>
+        <v>4516.030838189</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3534,7 +3483,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>4585.076875446901</v>
+        <v>1518.0251162358</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3542,7 +3491,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1263.2202501748</v>
+        <v>9014.747951125901</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3550,7 +3499,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>8891.793361173999</v>
+        <v>58708.2700442855</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3558,7 +3507,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>52723.8295175754</v>
+        <v>6586.258566283599</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3566,7 +3515,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6329.4764074702</v>
+        <v>6951.265230249301</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3574,7 +3523,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7365.826304202499</v>
+        <v>437181.9617611997</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3582,7 +3531,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>438828.3909112118</v>
+        <v>132559.7181839645</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3590,7 +3539,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>128043.6638886072</v>
+        <v>26156.273381655</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3598,7 +3547,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>27703.2829235646</v>
+        <v>39970.93312531951</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3606,7 +3555,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>32878.5229598662</v>
+        <v>9017.754606955199</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3614,7 +3563,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7329.9497376251</v>
+        <v>121085.236855309</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3622,7 +3571,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>125076.0358023553</v>
+        <v>7213.513560747801</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3630,7 +3579,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11340.2106605912</v>
+        <v>80381.91150493579</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3638,7 +3587,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>90279.7192608784</v>
+        <v>20796.6205424139</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3646,7 +3595,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>16177.0056778409</v>
+        <v>585984.8928975424</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3654,7 +3603,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>557786.236421759</v>
+        <v>246967.0805566026</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3662,7 +3611,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>252635.9750483822</v>
+        <v>8602.8882684122</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3670,7 +3619,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8841.8388134181</v>
+        <v>620.3568502964999</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3678,7 +3627,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>456.7162020974</v>
+        <v>954.6886864584</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3686,7 +3635,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>781.8063005051</v>
+        <v>1656.0729215435</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3694,7 +3643,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1108.9937547332</v>
+        <v>339017.8123412491</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3702,7 +3651,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>305150.2613732847</v>
+        <v>137590.542329113</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3710,7 +3659,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>127704.1886885103</v>
+        <v>97022.56059828011</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3718,7 +3667,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>81696.6651529927</v>
+        <v>3709.051398008</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3726,7 +3675,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>2826.7138655195</v>
+        <v>48369.13837138349</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3734,7 +3683,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>38833.544943546</v>
+        <v>666.8205317436</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3742,7 +3691,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>636.3012318894999</v>
+        <v>1063090.069369336</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3750,7 +3699,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1055552.869203085</v>
+        <v>708783.5973921638</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3758,7 +3707,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>711670.9632118992</v>
+        <v>68829.5004174442</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3766,7 +3715,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>73710.9205606649</v>
+        <v>1615.3490763407</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3774,7 +3723,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1576.0261988335</v>
+        <v>840.9189392032</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3782,7 +3731,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1023.1021001239</v>
+        <v>43174.35712892981</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3790,7 +3739,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>40026.8221559277</v>
+        <v>82744.87332008578</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3798,7 +3747,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>65404.8094711844</v>
+        <v>203365.5372058176</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3806,7 +3755,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>194737.9146567381</v>
+        <v>89384.8373594187</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3814,7 +3763,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>79570.1957184443</v>
+        <v>62698.5120178332</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3822,7 +3771,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>58022.84700856059</v>
+        <v>26074.7460832304</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3830,7 +3779,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>37213.68658213261</v>
+        <v>27421.6892342495</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3838,7 +3787,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>27108.7850419105</v>
+        <v>44296.69401140649</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3846,7 +3795,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>50013.7065902905</v>
+        <v>10931.1245284654</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3854,7 +3803,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>10363.1141281038</v>
+        <v>5939.5784838052</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3862,7 +3811,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7091.0839032245</v>
+        <v>87096.5047299427</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3870,7 +3819,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>108433.899550487</v>
+        <v>29910.7076361184</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3878,7 +3827,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>35969.2382899906</v>
+        <v>354306.471977466</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3886,7 +3835,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>343881.905991014</v>
+        <v>354306.471977466</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3894,7 +3843,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>343881.905991014</v>
+        <v>331501.043411676</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3902,7 +3851,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>310919.278636985</v>
+        <v>22805.4285657983</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3910,7 +3859,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>32962.6273540328</v>
+        <v>5426497.309839074</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3918,7 +3867,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5843555.696086099</v>
+        <v>4537096.482754087</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3926,7 +3875,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>4719748.590301357</v>
+        <v>2959832.855808329</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3934,7 +3883,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3166781.439384385</v>
+        <v>1836680.956140391</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3942,7 +3891,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>2063079.32721705</v>
+        <v>604431.16401967</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3950,7 +3899,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>562530.6503964688</v>
+        <v>518720.7356481064</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3958,7 +3907,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>541171.4617703441</v>
+        <v>680809.8712559623</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3966,7 +3915,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>715788.1159910313</v>
+        <v>475784.7608174364</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3974,7 +3923,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>522409.9323913753</v>
+        <v>136298.8822597976</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3982,7 +3931,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>122499.3348560428</v>
+        <v>68726.22817853189</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3990,7 +3939,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>70878.8487433894</v>
+        <v>394895.2214092204</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3998,7 +3947,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>348286.885881145</v>
+        <v>312793.7161073406</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4006,7 +3955,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>289566.4347010798</v>
+        <v>76984.78624080529</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4014,7 +3963,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>55661.4139845333</v>
+        <v>5116.7190608932</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4022,7 +3971,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>3059.0371954981</v>
+        <v>501558.5342807881</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4030,7 +3979,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>488892.1490461087</v>
+        <v>347497.4926765421</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4038,7 +3987,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>338428.854581527</v>
+        <v>61693.97949608541</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4046,7 +3995,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>56436.9593266113</v>
+        <v>92367.062108215</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4054,7 +4003,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>94026.3351377521</v>
+        <v>889400.8270847967</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4062,7 +4011,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1123807.10578483</v>
+        <v>889400.8270847967</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4070,7 +4019,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1123807.10578483</v>
+        <v>665739.4537813489</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4078,7 +4027,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>853145.7103586106</v>
+        <v>223661.3733037837</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4086,7 +4035,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>270661.395426038</v>
+        <v>2410481.124350638</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4094,7 +4043,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>2196878.222108534</v>
+        <v>1939674.861458488</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4102,7 +4051,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>1753176.287318196</v>
+        <v>12450.0291809752</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4110,7 +4059,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>11626.2418342896</v>
+        <v>12450.0291809752</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4118,7 +4067,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>11626.2418342896</v>
+        <v>554938.5119814473</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4126,7 +4075,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>489567.9374786669</v>
+        <v>153016.2371149917</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4134,7 +4083,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>128297.1929584019</v>
+        <v>107322.7837968131</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4142,7 +4091,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>108740.242836551</v>
+        <v>73307.50302163771</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4150,7 +4099,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>61093.3688274258</v>
+        <v>100265.1088331023</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4158,7 +4107,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>85927.08488837042</v>
+        <v>57218.7894449539</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4166,7 +4115,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>42814.6483683289</v>
+        <v>63808.0897696566</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4174,7 +4123,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>62695.399599353</v>
+        <v>1010289.935069157</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4182,7 +4131,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>919948.9211597614</v>
+        <v>220498.878153609</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4190,7 +4139,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>185653.0733025684</v>
+        <v>88713.22101022689</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4198,7 +4147,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>91073.75431102561</v>
+        <v>173310.0656067648</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4206,7 +4155,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>168688.9598535702</v>
+        <v>75270.9367527789</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4214,7 +4163,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>80733.71789719669</v>
+        <v>229825.6757579142</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4222,7 +4171,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>201757.5256354229</v>
+        <v>146213.9729826291</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4230,7 +4179,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>112202.3337900672</v>
+        <v>76457.18480525468</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4238,7 +4187,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>79839.55636988021</v>
+        <v>204836.5199297618</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4246,7 +4195,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>191481.7621229989</v>
+        <v>26494.3686191001</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4254,7 +4203,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>25926.9730881233</v>
+        <v>33373.1926374474</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4262,7 +4211,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>29996.4718778868</v>
+        <v>38096.1252662051</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4270,7 +4219,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>37182.9180329048</v>
+        <v>31803.4143257215</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4278,7 +4227,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>21789.3032116969</v>
+        <v>24728.4496196096</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4286,7 +4235,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>29109.5216569759</v>
+        <v>50340.96946158479</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4294,7 +4243,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>47476.5742553616</v>
+        <v>106249.497194492</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4302,7 +4251,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>89839.7700248305</v>
+        <v>85068.58468321219</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4310,7 +4259,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>71697.4244746636</v>
+        <v>21180.9125113228</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4318,7 +4267,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>18142.3455501066</v>
+        <v>50910.3681026141</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4326,7 +4275,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>50711.6546976301</v>
+        <v>50910.3681026141</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4334,7 +4283,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>50711.6546976301</v>
+        <v>470806.2628915435</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4342,7 +4291,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>443701.9347906995</v>
+        <v>139848.3872855041</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4350,7 +4299,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>133738.9744083633</v>
+        <v>139848.3872855041</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4358,7 +4307,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>133738.9744083633</v>
+        <v>241457.9289617749</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4366,7 +4315,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>226396.4183589932</v>
+        <v>241457.9289617749</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4374,7 +4323,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>226396.4183589932</v>
+        <v>73082.1293310926</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4382,7 +4331,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>71261.48779865079</v>
+        <v>73082.1293310926</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4390,7 +4339,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>71261.48779865079</v>
+        <v>16417.8173131013</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4398,7 +4347,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>12305.0542246733</v>
+        <v>16417.8173131013</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4406,7 +4355,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>12305.0542246733</v>
+        <v>14496796.4683751</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4414,7 +4363,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>14265369.35330355</v>
+        <v>13354729.28437431</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4422,7 +4371,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>13141555.27910721</v>
+        <v>10288458.01718584</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4430,7 +4379,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>10291582.60318302</v>
+        <v>10288458.01718584</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4438,7 +4387,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>10291582.60318302</v>
+        <v>1742849.697724427</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4446,7 +4395,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>1475228.487908256</v>
+        <v>1290556.62363006</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4454,7 +4403,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>936292.5728642144</v>
+        <v>101555.835548849</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4462,7 +4411,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>100920.6064548011</v>
+        <v>38090.7028271584</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4470,7 +4419,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>46510.08162645809</v>
+        <v>50754.9125841763</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4478,7 +4427,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>59945.1131559292</v>
+        <v>261891.6231343206</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4486,7 +4435,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>331560.11380696</v>
+        <v>1323421.56946304</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4494,7 +4443,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1374744.188018303</v>
+        <v>769215.5615189084</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4502,7 +4451,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>783663.7464084247</v>
+        <v>289231.0445468015</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4510,7 +4459,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>317193.5124409139</v>
+        <v>264974.9633976359</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4518,7 +4467,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>273886.929168592</v>
+        <v>327926.5077217566</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4526,7 +4475,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>357277.4013921936</v>
+        <v>212530.1096820153</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4534,7 +4483,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>207777.474986544</v>
+        <v>212530.1096820153</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4542,7 +4491,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>207777.474986544</v>
+        <v>61989.6154519503</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4550,7 +4499,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>91026.3544348266</v>
+        <v>61989.6154519503</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4558,7 +4507,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>91026.3544348266</v>
+        <v>53406.7825878382</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4566,7 +4515,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>58473.57197050181</v>
+        <v>53406.7825878382</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4574,7 +4523,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>58473.57197050181</v>
+        <v>814140.6762847268</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4582,7 +4531,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>766536.672803849</v>
+        <v>814140.6762847268</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4590,7 +4539,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>766536.672803849</v>
+        <v>79507.3226233812</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4598,7 +4547,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>105662.3731160015</v>
+        <v>734633.3536621847</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4606,7 +4555,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>660874.2996878723</v>
+        <v>2944955.557392056</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4614,7 +4563,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>2437533.650335977</v>
+        <v>1131067.085941838</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4622,7 +4571,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>838989.7428099304</v>
+        <v>1131067.085941838</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4630,7 +4579,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>838989.7428099304</v>
+        <v>362158.3321006872</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4638,7 +4587,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>265571.179294651</v>
+        <v>244687.684515955</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4646,7 +4595,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>188664.950931111</v>
+        <v>260664.5923327977</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4654,7 +4603,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>199434.6490426097</v>
+        <v>201091.3115941737</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4662,7 +4611,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>150344.6295962746</v>
+        <v>62465.1653983572</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4670,7 +4619,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>34974.33394531641</v>
+        <v>280817.9678889848</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4678,7 +4627,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>268748.2628122356</v>
+        <v>280817.9678889848</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4686,7 +4635,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>268748.2628122356</v>
+        <v>113611.0251417928</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4694,7 +4643,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>108500.8503729254</v>
+        <v>103150.1994542439</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4702,7 +4651,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>104407.7899298827</v>
+        <v>64056.7432927799</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4710,7 +4659,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>55839.62250951651</v>
+        <v>636524.4406286727</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4718,7 +4667,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>563887.9773728356</v>
+        <v>430098.7230468231</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4726,7 +4675,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>372898.0232780753</v>
+        <v>172838.180490952</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4734,7 +4683,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>130554.058960505</v>
+        <v>130178.1458214003</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4742,7 +4691,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>133987.1163086073</v>
+        <v>94202.26992793329</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4750,7 +4699,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>87847.9104198436</v>
+        <v>32880.1268067027</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4758,7 +4707,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>20508.9375890005</v>
+        <v>206425.7175818613</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4766,7 +4715,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>190989.9540950854</v>
+        <v>57813.570429679</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4774,7 +4723,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>48048.5045384407</v>
+        <v>10828.6215190113</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4782,7 +4731,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>8502.296905943402</v>
+        <v>93534.5120319183</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4790,7 +4739,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>89779.0205070864</v>
+        <v>44249.0136013317</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4798,7 +4747,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>44660.1321435945</v>
+        <v>367917.6684389227</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4806,7 +4755,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>275634.2945046531</v>
+        <v>292495.2139409842</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4814,7 +4763,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>206962.4157630821</v>
+        <v>235439.9846900168</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4822,7 +4771,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>159662.6097806267</v>
+        <v>57055.2292512141</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4830,7 +4779,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>47299.8059824537</v>
+        <v>75422.45449794231</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4838,7 +4787,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>68671.8787416102</v>
+        <v>75422.45449794231</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4846,7 +4795,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>68671.8787416102</v>
+        <v>528628.3944911752</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4854,7 +4803,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>490273.372834991</v>
+        <v>355832.9436703111</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4862,7 +4811,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>322880.3656360183</v>
+        <v>203351.4241544241</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4870,7 +4819,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>180345.6528379317</v>
+        <v>12155.2185675531</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4878,7 +4827,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>12821.1332364766</v>
+        <v>5176.9853985199</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4886,7 +4835,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>3953.2896268515</v>
+        <v>135149.3155498248</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4894,7 +4843,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>125760.289934647</v>
+        <v>172795.4508208</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4902,7 +4851,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>167393.0071987659</v>
+        <v>172795.4508208</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4910,7 +4859,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>167393.0071987659</v>
+        <v>2774464.506205336</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4918,7 +4867,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>2618728.229074907</v>
+        <v>748938.0064252276</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4926,7 +4875,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>750256.8491766206</v>
+        <v>748938.0064252276</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4934,7 +4883,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>750256.8491766206</v>
+        <v>397372.9124656621</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4942,7 +4891,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>402911.0756446033</v>
+        <v>273986.7851446504</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4950,7 +4899,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>239715.9159010448</v>
+        <v>77578.3088148</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4958,7 +4907,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>107629.8576308929</v>
+        <v>2025526.499779646</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4966,7 +4915,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>1868471.379898388</v>
+        <v>2025526.499779646</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4974,7 +4923,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1868471.379898388</v>
+        <v>817223.5785474404</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4982,7 +4931,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>650469.9306030403</v>
+        <v>688398.4254819431</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4990,7 +4939,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>631174.2491606541</v>
+        <v>73504.74600282269</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4998,7 +4947,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>57682.4831197719</v>
+        <v>153719.2505017958</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -5006,7 +4955,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>152112.705339989</v>
+        <v>292680.4992447084</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -5014,7 +4963,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>377032.0116753881</v>
+        <v>7435007.167515456</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -5022,7 +4971,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7518980.265611567</v>
+        <v>6061212.478746105</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -5030,7 +4979,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>5884870.073293251</v>
+        <v>2001737.386513202</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -5038,7 +4987,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>1829619.219789151</v>
+        <v>1180385.325113953</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -5046,7 +4995,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>1111733.991350454</v>
+        <v>821352.061399115</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5054,7 +5003,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>717885.228438457</v>
+        <v>101708.400837763</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5062,7 +5011,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>118836.403280502</v>
+        <v>101708.400837763</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -5070,7 +5019,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>118836.403280502</v>
+        <v>132713.509867926</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -5078,7 +5027,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>123649.2885512875</v>
+        <v>132713.509867926</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -5086,7 +5035,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>123649.2885512875</v>
+        <v>201216.4609508354</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -5094,7 +5043,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>217156.8602962064</v>
+        <v>177474.9513089687</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -5102,7 +5051,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>189962.2032782075</v>
+        <v>23741.5096418717</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -5110,7 +5059,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>27194.6570180047</v>
+        <v>1471878.898376773</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -5118,7 +5067,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>1308580.96288679</v>
+        <v>734181.2608958973</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -5126,7 +5075,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>637526.821849563</v>
+        <v>164552.0289146891</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -5134,7 +5083,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>253757.1642389746</v>
+        <v>12781.1875949285</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -5142,7 +5091,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>13028.6902297631</v>
+        <v>747843.3726657927</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -5150,7 +5099,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>636939.8464770792</v>
+        <v>747843.3726657927</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -5158,7 +5107,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>636939.8464770792</v>
+        <v>1404114.44953267</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -5166,7 +5115,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1650087.49200986</v>
+        <v>251710.1453675829</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -5174,7 +5123,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>348468.6136688743</v>
+        <v>102970.8023841822</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -5182,7 +5131,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>150952.0325019901</v>
+        <v>755815.93455623</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -5190,7 +5139,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>801459.07450346</v>
+        <v>34502.6339237825</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -5198,7 +5147,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>34726.1196632808</v>
+        <v>259114.9333024304</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -5206,7 +5155,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>314481.6516736198</v>
+        <v>1373794.688770042</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -5214,7 +5163,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>1634110.192319022</v>
+        <v>305959.5631904053</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5222,7 +5171,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>260250.0279887129</v>
+        <v>284808.3262732538</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -5230,7 +5179,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>247560.056207533</v>
+        <v>21151.2369171201</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5238,7 +5187,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>12689.9717811844</v>
+        <v>86496.81925786141</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -5246,7 +5195,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>78087.26820480439</v>
+        <v>54527.47692874439</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -5254,7 +5203,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>39375.7272648439</v>
+        <v>31969.342329154</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -5262,7 +5211,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>38711.5409399511</v>
+        <v>318381.0785552047</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5270,7 +5219,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>435670.7411449056</v>
+        <v>318381.0785552047</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5278,7 +5227,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>435670.7411449056</v>
+        <v>49163.0630633078</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5286,7 +5235,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>21723.1098729114</v>
+        <v>49163.0630633078</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5294,7 +5243,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>21723.1098729114</v>
+        <v>576286.4886716371</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5302,7 +5251,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>794091.2069869343</v>
+        <v>349373.9888741986</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5310,7 +5259,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>435777.4407896174</v>
+        <v>64817.5086793053</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5318,7 +5267,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>79416.6301894504</v>
+        <v>47464.0446292116</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5326,7 +5275,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>85537.2995843161</v>
+        <v>114630.9464890013</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5334,7 +5283,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>193359.8364236629</v>
+        <v>37507.6760315389</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5342,7 +5291,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>44287.8381209504</v>
+        <v>37507.6760315389</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5350,7 +5299,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>44287.8381209504</v>
+        <v>1713799.406701279</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5358,7 +5307,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>1857257.479411946</v>
+        <v>55957.8486221378</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5366,7 +5315,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>48565.6385756252</v>
+        <v>55957.8486221378</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5374,7 +5323,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>48565.6385756252</v>
+        <v>55957.8486221378</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5382,7 +5331,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>48565.6385756252</v>
+        <v>1657841.558078859</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5390,7 +5339,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>1808691.840836268</v>
+        <v>77465.0976228716</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5398,7 +5347,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>117384.1769942627</v>
+        <v>77465.0976228716</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5406,7 +5355,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>117384.1769942627</v>
+        <v>656518.4260099236</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5414,7 +5363,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>867628.2921496774</v>
+        <v>224379.020960493</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5422,7 +5371,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>775393.2272716709</v>
+        <v>264107.8590770543</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5430,7 +5379,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>45133.09947381391</v>
+        <v>14873.3284952791</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5438,7 +5387,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>47101.96540419541</v>
+        <v>153158.217477094</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5446,7 +5395,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>632047.2423178807</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5454,7 +5403,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>775679.4965853564</v>
+        <v>192003.826269638</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5462,7 +5411,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>676952.039770299</v>
+        <v>340410.7386431335</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5470,7 +5419,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>98727.4568151743</v>
+        <v>99632.6774051773</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5478,7 +5427,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0</v>
+        <v>291810.7921287232</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5486,7 +5435,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>47999.8751072604</v>
+        <v>54913.1071020713</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5494,7 +5443,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>34622.331944445</v>
+        <v>236897.6850266575</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5502,7 +5451,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>13377.5431628175</v>
+        <v>6517703.580745897</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5510,7 +5459,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>5802521.24651969</v>
+        <v>914184.5842914596</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5518,7 +5467,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>558350.1920670064</v>
+        <v>312405.08405326</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5526,7 +5475,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>161561.256341342</v>
+        <v>312405.08405326</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5534,7 +5483,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>161561.256341342</v>
+        <v>86266.8170776265</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5542,7 +5491,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>61961.77624620761</v>
+        <v>86266.8170776265</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5550,7 +5499,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>61961.77624620761</v>
+        <v>395365.6560920669</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5558,7 +5507,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>276410.8327848854</v>
+        <v>250446.6437892778</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5566,7 +5515,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>165764.7388950748</v>
+        <v>144919.0123025937</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5574,7 +5523,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>110646.0938896943</v>
+        <v>120147.0270680439</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5582,7 +5531,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>58416.3266946846</v>
+        <v>49959.8043604079</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5590,7 +5539,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>22504.9693748077</v>
+        <v>49126.1224901134</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5598,7 +5547,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>22688.9075644927</v>
+        <v>21061.1002174436</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5606,7 +5555,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>13222.4497554019</v>
+        <v>1387338.132784159</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5614,7 +5563,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>1207245.241496709</v>
+        <v>201973.1255670026</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5622,7 +5571,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>189712.2157763581</v>
+        <v>201973.1255670026</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5630,7 +5579,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>189712.2157763581</v>
+        <v>268414.705830991</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5638,7 +5587,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>213056.8022070994</v>
+        <v>121758.8901291168</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5646,7 +5595,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>110867.8036702033</v>
+        <v>12843.2620252551</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5654,7 +5603,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>13812.8844348196</v>
+        <v>55998.8614602444</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5662,7 +5611,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>25606.4427795773</v>
+        <v>77813.69221631929</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5670,7 +5619,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>62769.6713224559</v>
+        <v>222044.9265093554</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5678,7 +5627,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>189706.751567419</v>
+        <v>95000.11884673499</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5686,7 +5635,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>68190.35060993851</v>
+        <v>104598.2609314406</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5694,7 +5643,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>97427.88520746701</v>
+        <v>22446.5467310912</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5702,7 +5651,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>24088.5157499687</v>
+        <v>340134.844628405</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5710,7 +5659,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>300389.7373503538</v>
+        <v>340134.844628405</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5718,7 +5667,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>300389.7373503538</v>
+        <v>354770.5302477959</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5726,7 +5675,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>314379.7345952037</v>
+        <v>209772.6226962424</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5734,7 +5683,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>192680.2566124762</v>
+        <v>144997.9075514856</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5742,7 +5691,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>121699.4779827154</v>
+        <v>1910820.883051233</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5750,7 +5699,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>1950385.584388407</v>
+        <v>966554.6561952792</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5758,7 +5707,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>1072517.65273053</v>
+        <v>35959.7986976075</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5766,7 +5715,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>35679.9094304049</v>
+        <v>283149.6494303539</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5774,7 +5723,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>349530.5986426391</v>
+        <v>123023.4271935566</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5782,7 +5731,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>125674.3674430833</v>
+        <v>46868.1261450503</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5790,7 +5739,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>55527.9327501654</v>
+        <v>138373.6485454249</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5798,7 +5747,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>162603.2272527888</v>
+        <v>132169.5803060309</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5806,7 +5755,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>128687.5540645887</v>
+        <v>75709.8602975839</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5814,7 +5763,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>83114.4037675702</v>
+        <v>16656.0883605474</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5822,7 +5771,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>20648.7534104156</v>
+        <v>114644.4772193993</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5830,7 +5779,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>111050.9059690918</v>
+        <v>846900.2407842459</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5838,7 +5787,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>792673.287999751</v>
+        <v>189358.7567859973</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5846,7 +5795,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>175628.7397314429</v>
+        <v>48766.18210113561</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5854,7 +5803,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>45576.1634915009</v>
+        <v>49163.0893981584</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5862,7 +5811,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>61798.45323086721</v>
+        <v>340315.4048054194</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5870,7 +5819,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>336273.2406020324</v>
+        <v>44345.6569076197</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5878,7 +5827,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>24391.2549798393</v>
+        <v>93133.8975093374</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5886,7 +5835,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>87133.6910598455</v>
+        <v>4224.6263586161</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5894,7 +5843,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>6007.2772288846</v>
+        <v>17974.5243846268</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5902,7 +5851,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>18157.1465876633</v>
+        <v>59618.1025332766</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5910,7 +5859,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>37707.3210881244</v>
+        <v>97365.98607259529</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5918,7 +5867,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>85194.6436588263</v>
+        <v>97365.98607259529</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5926,7 +5875,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>85194.6436588263</v>
+        <v>697112.3971010633</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5934,7 +5883,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>580413.9411692305</v>
+        <v>204466.887631556</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5942,7 +5891,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>166184.8896946308</v>
+        <v>204466.887631556</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5950,7 +5899,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>166184.8896946308</v>
+        <v>346013.9076112272</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5958,7 +5907,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>286838.6011547109</v>
+        <v>65982.5073113237</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5966,7 +5915,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>41180.4562350357</v>
+        <v>280031.4002999333</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5974,7 +5923,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>245658.1449196459</v>
+        <v>146631.6018584331</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5982,7 +5931,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>127390.4503201312</v>
+        <v>55392.42798339461</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -5990,7 +5939,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>47714.8493105073</v>
+        <v>91239.17387506409</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -5998,7 +5947,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>79675.60100959719</v>
+        <v>1608247.583518048</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -6006,7 +5955,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>1506126.287399307</v>
+        <v>1608247.583518048</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -6014,7 +5963,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>1506126.287399307</v>
+        <v>1608247.583518048</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -6022,7 +5971,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>1506126.287399307</v>
+        <v>397180.3598517774</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -6030,7 +5979,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>491394.1503751582</v>
+        <v>397180.3598517774</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -6038,7 +5987,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>491394.1503751582</v>
+        <v>397180.3598517774</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -6046,7 +5995,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>491394.1503751582</v>
+        <v>88467.27402393641</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -6054,7 +6003,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>134953.2780501222</v>
+        <v>92140.5611172232</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -6062,7 +6011,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>72506.7754402288</v>
+        <v>104173.0731355794</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -6070,7 +6019,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>178849.4291497145</v>
+        <v>112399.4515748559</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -6078,7 +6027,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>105084.6677351631</v>
+        <v>2628444.355144945</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -6086,7 +6035,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>2753785.632630215</v>
+        <v>1283395.796644043</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -6094,7 +6043,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>1182909.566989497</v>
+        <v>721522.991914685</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -6102,7 +6051,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>639830.3491739201</v>
+        <v>32730.400530778</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -6110,7 +6059,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>34494.0861422844</v>
+        <v>47673.4401699198</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -6118,7 +6067,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>43050.6449823688</v>
+        <v>137744.3510437174</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -6126,7 +6075,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>115497.5119627458</v>
+        <v>45471.80209693519</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -6134,7 +6083,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>40989.9130649017</v>
+        <v>70397.1814932697</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -6142,7 +6091,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>57952.89357608581</v>
+        <v>37372.0759133016</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -6150,7 +6099,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>33867.0568666377</v>
+        <v>350133.7406666931</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -6158,7 +6107,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>313978.2425785799</v>
+        <v>561872.8047295137</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -6166,7 +6115,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>543079.2178158958</v>
+        <v>561872.8047295137</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -6174,7 +6123,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>543079.2178158958</v>
+        <v>399389.7681951543</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -6182,7 +6131,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>418313.703005717</v>
+        <v>399389.7681951543</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -6190,7 +6139,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>418313.703005717</v>
+        <v>246976.8807819786</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -6198,7 +6147,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>228799.5864455789</v>
+        <v>127544.7502039587</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -6206,7 +6155,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>150475.9615070462</v>
+        <v>24868.1372091056</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -6214,7 +6163,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>39038.15505318101</v>
+        <v>945658.790305229</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -6222,7 +6171,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>1152562.362634944</v>
+        <v>228452.0306614529</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -6230,7 +6179,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>471807.8000957236</v>
+        <v>228452.0306614529</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -6238,7 +6187,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>471807.8000957236</v>
+        <v>235683.5116245807</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -6246,7 +6195,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>247721.5897711017</v>
+        <v>235683.5116245807</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -6254,7 +6203,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>247721.5897711017</v>
+        <v>161667.5856295202</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -6262,7 +6211,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>162938.7045795289</v>
+        <v>9138.086554072201</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -6270,7 +6219,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>7918.5337000027</v>
+        <v>45835.0959003615</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -6278,7 +6227,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>57195.44014812329</v>
+        <v>62965.4640415989</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -6286,7 +6235,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>50089.62667400649</v>
+        <v>8973.580166674201</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -6294,7 +6243,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>8475.3293583388</v>
+        <v>34755.3589668104</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -6302,7 +6251,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>39259.7746991945</v>
+        <v>319855.6623905687</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -6310,7 +6259,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>270094.2681878823</v>
+        <v>319855.6623905687</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -6318,7 +6267,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>270094.2681878823</v>
+        <v>2799289.331255021</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -6326,7 +6275,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>3111722.103664153</v>
+        <v>2799289.331255021</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -6334,7 +6283,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>3111722.103664153</v>
+        <v>2799289.331255021</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -6342,7 +6291,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>3111722.103664153</v>
+        <v>2799289.331255021</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -6350,7 +6299,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>3111722.103664153</v>
+        <v>2408370.553955071</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -6358,7 +6307,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>2824836.823366893</v>
+        <v>390918.7772963562</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -6366,7 +6315,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>286885.28029859</v>
+        <v>96738.8659678054</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -6374,7 +6323,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>116244.7305423412</v>
+        <v>66619.75788681681</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -6382,7 +6331,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>31969.252027016</v>
+        <v>3938.3653098241</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -6390,7 +6339,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>1668.9970705946</v>
+        <v>1344.3026432776</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -6398,7 +6347,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>60000.9522384997</v>
+        <v>758.4886867143</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -6406,7 +6355,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>4596.8876646039</v>
+        <v>1241.6124196646</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -6414,7 +6363,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>1295.1384559137</v>
+        <v>1612.5385820215</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -6422,7 +6371,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>981.6596189963</v>
+        <v>203357.1126528995</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -6430,7 +6379,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>1109.8066873177</v>
+        <v>16536.3915837345</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -6438,7 +6387,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>1446.9763229349</v>
+        <v>127575.2344035578</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -6446,7 +6395,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>185002.2041876814</v>
+        <v>1550.676278379</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -6454,7 +6403,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>9217.7718522619</v>
+        <v>150502.7815509238</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -6462,7 +6411,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>790.7579745524</v>
+        <v>31985.5692967555</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -6470,7 +6419,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>14913.6469763826</v>
+        <v>11834.0067266959</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -6478,7 +6427,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>124930.3395629885</v>
+        <v>287358.1132285493</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -6486,7 +6435,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>142140.104465936</v>
+        <v>2456.2680155428</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -6494,7 +6443,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>404.9336408563</v>
+        <v>5677.172458571499</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -6502,7 +6451,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>1813.0671691631</v>
+        <v>15892.5609510555</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -6510,7 +6459,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>31880.466398544</v>
+        <v>6551.7899871228</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -6518,7 +6467,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>2502.1998927443</v>
+        <v>4790.6847635098</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -6526,7 +6475,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>385.2829072695</v>
+        <v>2228.8174890364</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -6534,7 +6483,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>32095.4624422763</v>
+        <v>2459.9824090198</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -6542,7 +6491,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>14223.7070162794</v>
+        <v>2530.4190522958</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -6550,7 +6499,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>2095.6079814495</v>
+        <v>1661.0170286797</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -6558,7 +6507,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>1724.9068483467</v>
+        <v>1381.9129896587</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -6566,7 +6515,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>395.9923395181</v>
+        <v>29910.7076361184</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -6574,7 +6523,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>9481.698343086</v>
+        <v>898733.2898106754</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -6582,7 +6531,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>901.2781173752001</v>
+        <v>9734</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -6590,143 +6539,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>2392.9783397711</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2">
-      <c r="A562" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B562">
-        <v>879.2934564606001</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2">
-      <c r="A563" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B563">
-        <v>11189.3550707459</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2">
-      <c r="A564" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B564">
-        <v>251697.4138823591</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2">
-      <c r="A565" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B565">
-        <v>2599.1282989584</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2">
-      <c r="A566" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B566">
-        <v>4068.7381058488</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2">
-      <c r="A567" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B567">
-        <v>14502.3250939055</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2">
-      <c r="A568" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B568">
-        <v>5816.4994229863</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2">
-      <c r="A569" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B569">
-        <v>4168.3839708679</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2">
-      <c r="A570" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B570">
-        <v>3182.7628660923</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2">
-      <c r="A571" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B571">
-        <v>2060.3807118981</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2">
-      <c r="A572" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B572">
-        <v>3313.4138785022</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2">
-      <c r="A573" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B573">
-        <v>1566.6540945544</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2">
-      <c r="A574" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B574">
-        <v>1347.6640112705</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2">
-      <c r="A575" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B575">
-        <v>35969.2382899906</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
-      <c r="A576" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B576">
-        <v>891283.986088669</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
-      <c r="A577" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B577">
-        <v>9955</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2">
-      <c r="A578" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B578">
-        <v>22315</v>
+        <v>22981</v>
       </c>
     </row>
   </sheetData>

--- a/dev/write_files/habe_totaldemands.xlsx
+++ b/dev/write_files/habe_totaldemands.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="577">
   <si>
     <t>a30</t>
   </si>
@@ -64,6 +64,9 @@
     <t>a320004</t>
   </si>
   <si>
+    <t>a320005</t>
+  </si>
+  <si>
     <t>a33</t>
   </si>
   <si>
@@ -1609,7 +1612,13 @@
     <t>a810002</t>
   </si>
   <si>
-    <t>m5111a</t>
+    <t>m5111</t>
+  </si>
+  <si>
+    <t>m511104</t>
+  </si>
+  <si>
+    <t>m511105</t>
   </si>
   <si>
     <t>m5112</t>
@@ -1630,7 +1639,13 @@
     <t>m511305</t>
   </si>
   <si>
-    <t>m5114a</t>
+    <t>m5114</t>
+  </si>
+  <si>
+    <t>m511409</t>
+  </si>
+  <si>
+    <t>m511410</t>
   </si>
   <si>
     <t>m5115</t>
@@ -1639,13 +1654,49 @@
     <t>m5116</t>
   </si>
   <si>
+    <t>m5117</t>
+  </si>
+  <si>
+    <t>m511703</t>
+  </si>
+  <si>
     <t>m511711</t>
   </si>
   <si>
-    <t>m5117a</t>
-  </si>
-  <si>
-    <t>m5118a</t>
+    <t>m5118</t>
+  </si>
+  <si>
+    <t>m511805</t>
+  </si>
+  <si>
+    <t>m511807</t>
+  </si>
+  <si>
+    <t>m5119</t>
+  </si>
+  <si>
+    <t>m511901</t>
+  </si>
+  <si>
+    <t>m511902</t>
+  </si>
+  <si>
+    <t>m511903</t>
+  </si>
+  <si>
+    <t>m511904</t>
+  </si>
+  <si>
+    <t>m511905</t>
+  </si>
+  <si>
+    <t>m511906</t>
+  </si>
+  <si>
+    <t>m511907</t>
+  </si>
+  <si>
+    <t>m511908</t>
   </si>
   <si>
     <t>m5121</t>
@@ -2051,7 +2102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2067,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25924868.50186311</v>
+        <v>27107366.01156221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2075,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9260644.896297894</v>
+        <v>9644401.019047745</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2083,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9260644.896297894</v>
+        <v>9644401.019047745</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2091,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9260644.896297894</v>
+        <v>9644401.019047745</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2099,7 +2150,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3728911.019690943</v>
+        <v>3830243.539737495</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2107,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>646824.9222282604</v>
+        <v>726513.870647</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2115,7 +2166,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>804862.0275748213</v>
+        <v>740119.4368525796</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2123,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3988766.851327116</v>
+        <v>4306301.260966877</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2131,7 +2182,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>91280.07546906581</v>
+        <v>41222.910842068</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2139,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11393201.80496716</v>
+        <v>11236935.28584349</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2147,7 +2198,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11393201.80496716</v>
+        <v>11236935.28584349</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2155,7 +2206,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11393201.80496716</v>
+        <v>11236935.28584349</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2163,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>327607.4098374131</v>
+        <v>443308.0333104639</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2171,7 +2222,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1689370.381695479</v>
+        <v>1562380.081620753</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2179,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5080091.378110955</v>
+        <v>3913083.916818587</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2187,7 +2238,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4296132.635320325</v>
+        <v>3185242.149209769</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2195,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5271021.800606976</v>
+        <v>2132921.10488026</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2203,7 +2254,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5271021.800606976</v>
+        <v>6226029.706670585</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2211,7 +2262,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5271021.800606976</v>
+        <v>6226029.706670585</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2219,7 +2270,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5201857.231442169</v>
+        <v>6226029.706670585</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2227,7 +2278,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>69164.5691642538</v>
+        <v>6107608.519829568</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2235,7 +2286,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1733096.464314365</v>
+        <v>118421.1868416549</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2243,7 +2294,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1733096.464314365</v>
+        <v>1747963.01988959</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2251,7 +2302,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1733096.464314365</v>
+        <v>1747963.01988959</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2259,7 +2310,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1733096.464314365</v>
+        <v>1747963.01988959</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2267,7 +2318,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>654834.1373400301</v>
+        <v>1747963.01988959</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2275,7 +2326,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>986135.3452036428</v>
+        <v>606751.82259347</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2283,7 +2334,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>92126.98177020109</v>
+        <v>1024142.411779092</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2291,7 +2342,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5861486.721890667</v>
+        <v>117068.7855169492</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2299,7 +2350,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1452367.206034869</v>
+        <v>6019438.558228706</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2307,7 +2358,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1452367.206034869</v>
+        <v>1462104.768052938</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2315,7 +2366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1452367.206034869</v>
+        <v>1462104.768052938</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2323,7 +2374,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>879864.6899531796</v>
+        <v>1462104.768052938</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2331,7 +2382,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>572502.5160818514</v>
+        <v>856079.9258695467</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2339,7 +2390,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1961093.91327612</v>
+        <v>606024.8421832247</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2347,7 +2398,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1961093.91327612</v>
+        <v>1968236.287353748</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2355,7 +2406,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>655473.1889190658</v>
+        <v>1968236.287353748</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2363,7 +2414,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>171604.2030752813</v>
+        <v>646113.1350758664</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2371,7 +2422,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>62169.7113925872</v>
+        <v>143548.706400981</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2379,7 +2430,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>160531.4868647398</v>
+        <v>53875.3854505699</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2387,7 +2438,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>261167.7875862636</v>
+        <v>197164.1071464008</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2395,7 +2446,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1115010.373873243</v>
+        <v>251524.9360778516</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2403,7 +2454,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1108802.474268686</v>
+        <v>1120500.983771133</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2411,7 +2462,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6207.8996044501</v>
+        <v>1120250.225437811</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2419,7 +2470,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>190610.3504847414</v>
+        <v>250.7583333332</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2427,7 +2478,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>62089.1198031157</v>
+        <v>201622.168506796</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2435,7 +2486,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>94504.7940757824</v>
+        <v>71534.670200971</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2443,7 +2494,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>10181.6682757251</v>
+        <v>93734.1675558187</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2451,7 +2502,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>23834.7683302047</v>
+        <v>22744.7285716365</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2459,7 +2510,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>745048.1685118984</v>
+        <v>13608.6021784195</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2467,7 +2518,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>745048.1685118984</v>
+        <v>747854.0242940877</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2475,7 +2526,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>745048.1685118984</v>
+        <v>747854.0242940877</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2483,7 +2534,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>124527.2769557164</v>
+        <v>747854.0242940877</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2491,7 +2542,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>396934.6029601794</v>
+        <v>126970.0412135755</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2499,7 +2550,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>11822.7884442306</v>
+        <v>380114.3605154882</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2507,7 +2558,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>32077.9197174602</v>
+        <v>13099.947222199</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2515,7 +2566,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>61449.7894787589</v>
+        <v>33971.8828834698</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2523,7 +2574,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>118235.7909552067</v>
+        <v>63656.63256862029</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2531,7 +2582,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1702977.434067039</v>
+        <v>130041.159890489</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2539,7 +2590,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>251584.5858597585</v>
+        <v>1841243.478528454</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2547,7 +2598,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>251584.5858597585</v>
+        <v>328498.9106722778</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2555,7 +2606,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>251584.5858597585</v>
+        <v>328498.9106722778</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2563,7 +2614,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1451392.848207162</v>
+        <v>328498.9106722778</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2571,7 +2622,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>68017.2961412888</v>
+        <v>1512744.567855691</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2579,7 +2630,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>23916.5634854142</v>
+        <v>76355.6849528094</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2587,7 +2638,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>44100.7326558463</v>
+        <v>25169.9340427806</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2595,7 +2646,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>29230.7855028097</v>
+        <v>51185.75090998531</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2603,7 +2654,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>29230.7855028097</v>
+        <v>27493.0730485786</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2611,7 +2662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>679705.9727937849</v>
+        <v>27493.0730485786</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2619,7 +2670,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>353919.3447023434</v>
+        <v>764069.0325127231</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2627,7 +2678,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>102481.4209591809</v>
+        <v>412580.1042642715</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2635,7 +2686,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>134648.743092279</v>
+        <v>104304.8775457782</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2643,7 +2694,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>49009.5191786619</v>
+        <v>149144.3455998103</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2651,7 +2702,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>13674.8726393102</v>
+        <v>59231.8028572997</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2659,7 +2710,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>17542.2180720635</v>
+        <v>13773.9910005835</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2667,7 +2718,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4420.1650893415</v>
+        <v>16691.1176163767</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2675,7 +2726,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4009.6890611823</v>
+        <v>5193.830916122099</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2683,7 +2734,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>97269.26295566741</v>
+        <v>3148.9627125158</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2691,7 +2742,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>40885.8664042131</v>
+        <v>87410.22871375829</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2699,7 +2750,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>56383.3965514072</v>
+        <v>33126.7660326333</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2707,7 +2758,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>70101.5116721442</v>
+        <v>54283.4626811418</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2715,7 +2766,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>70101.5116721442</v>
+        <v>64864.8519396004</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2723,7 +2774,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>61720.4886150913</v>
+        <v>64864.8519396004</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2731,7 +2782,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>61720.4886150913</v>
+        <v>53153.3924359078</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2739,7 +2790,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>256584.7115036067</v>
+        <v>53153.3924359078</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2747,7 +2798,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>55958.6113661718</v>
+        <v>222439.9743538924</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2755,7 +2806,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>47670.3154910082</v>
+        <v>48966.85912426509</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2763,7 +2814,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>25044.5104445894</v>
+        <v>36972.4903174904</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2771,7 +2822,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2839.0447703305</v>
+        <v>20185.1080469152</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2779,7 +2830,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>9738.182472348799</v>
+        <v>2089.1277557955</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2787,7 +2838,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>115334.0469590246</v>
+        <v>8951.428778339599</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2795,7 +2846,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>188762.819023068</v>
+        <v>105274.9603310333</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2803,7 +2854,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>29439.5181023815</v>
+        <v>216958.329898341</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2811,7 +2862,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>29676.3153007053</v>
+        <v>28075.2377972074</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2819,7 +2870,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>129646.9856200694</v>
+        <v>34518.9283376228</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2827,7 +2878,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>54575546.59130539</v>
+        <v>154364.1637636559</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2835,7 +2886,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6767126.68582917</v>
+        <v>53356155.44799009</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2843,7 +2894,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6181141.792929105</v>
+        <v>6514598.653325194</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2851,7 +2902,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1057449.131767347</v>
+        <v>5956812.416901045</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2859,7 +2910,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7361.436888645299</v>
+        <v>993716.6009030076</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2867,7 +2918,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>19358.6163389981</v>
+        <v>6741.442436415</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2875,7 +2926,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>43855.9940026758</v>
+        <v>16369.6617210497</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2883,7 +2934,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>448103.1234104093</v>
+        <v>36280.0166023715</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2891,7 +2942,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>28832.4549974995</v>
+        <v>441284.9810245644</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2899,7 +2950,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>8993.438550824299</v>
+        <v>46228.0191056988</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2907,7 +2958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4857.0619470048</v>
+        <v>7335.470580504</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2915,7 +2966,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>12312.318239741</v>
+        <v>3487.4750295541</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2923,7 +2974,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1520115.908655863</v>
+        <v>12392.4150749111</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2931,7 +2982,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>8937.525652441</v>
+        <v>1378172.34273243</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2939,7 +2990,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2723.7922001403</v>
+        <v>8521.2966951037</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2947,7 +2998,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>9434.661706934701</v>
+        <v>1635.0202320313</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2955,7 +3006,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>543.1002972355</v>
+        <v>8133.6636443489</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2963,7 +3014,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1259.8688797084</v>
+        <v>217.0601571965</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2971,7 +3022,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>11781.071195618</v>
+        <v>1513.5217349314</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2979,7 +3030,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>819.7868429337</v>
+        <v>11824.5775878988</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2987,7 +3038,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>4412.9274828237</v>
+        <v>903.5245959214001</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2995,7 +3046,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>16300.4219503895</v>
+        <v>4129.610917711</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3003,7 +3054,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7679.147481821</v>
+        <v>14005.1692484127</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3011,7 +3062,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>710.3322817748001</v>
+        <v>6887.099758045</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3019,7 +3070,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1163.6643770482</v>
+        <v>489.5653593885</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3027,7 +3078,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>853.4575379578999</v>
+        <v>1191.5298561332</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3035,7 +3086,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8895.307641497699</v>
+        <v>549.3124514223</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3043,7 +3094,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>107875.2522817386</v>
+        <v>9430.468749757199</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3051,7 +3102,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>31569.5126117318</v>
+        <v>126798.7511154268</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3059,7 +3110,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>33011.9061283658</v>
+        <v>30321.2675305953</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3067,7 +3118,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>18975.7040033998</v>
+        <v>38639.7812888653</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3075,7 +3126,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>21555.7340109067</v>
+        <v>16332.0686133815</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3083,7 +3134,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1040941.134266423</v>
+        <v>24109.0508902789</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3091,7 +3142,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>72371.27131758579</v>
+        <v>959162.4122987346</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3099,7 +3150,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>45536.7593448985</v>
+        <v>57897.24929937199</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3107,7 +3158,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>16488.5966841317</v>
+        <v>37299.26174297649</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3115,7 +3166,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>9793.614960204999</v>
+        <v>15217.7719293585</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3123,7 +3174,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>10755.9041472555</v>
+        <v>10152.7329934655</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3131,7 +3182,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>3374.3120169681</v>
+        <v>9583.5459994066</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3139,7 +3190,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>33280.2929776912</v>
+        <v>3442.2936337921</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3147,7 +3198,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>11756.3612042058</v>
+        <v>29057.0060947669</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3155,7 +3206,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>88865.51031371718</v>
+        <v>12343.8126677245</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3163,7 +3214,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>8691.4424022884</v>
+        <v>93385.69988874221</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3171,7 +3222,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>161508.2471935992</v>
+        <v>10230.2192901335</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3179,7 +3230,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6261.775489857901</v>
+        <v>149308.3162082929</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3187,7 +3238,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1661.2077547693</v>
+        <v>5758.6335682834</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3195,7 +3246,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>389.6873722863</v>
+        <v>1083.2302652926</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3203,7 +3254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>3298.5137005144</v>
+        <v>494.1755741925</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3211,7 +3262,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>4925.2072663299</v>
+        <v>3289.175204330299</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3219,7 +3270,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>566247.5917585518</v>
+        <v>4288.4323643019</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3227,7 +3278,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>2913.0855896192</v>
+        <v>610493.9462250466</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3235,7 +3286,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>21549.0073335034</v>
+        <v>3722.3597896504</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3243,7 +3294,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>15594.1131265109</v>
+        <v>21616.8713012093</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3251,7 +3302,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>26214.2213800131</v>
+        <v>16088.1616787959</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3259,7 +3310,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6600.5918929203</v>
+        <v>21218.9263627885</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3267,7 +3318,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>17517.2789309422</v>
+        <v>5162.177482816601</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3275,7 +3326,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6630.108513865501</v>
+        <v>17060.3957771812</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3283,7 +3334,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6683.8126271744</v>
+        <v>7487.7831975187</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3291,7 +3342,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7364.364875575</v>
+        <v>6520.18595491</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3299,7 +3350,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7505.2364324431</v>
+        <v>8198.289279941599</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3307,7 +3358,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>4518.6741970971</v>
+        <v>8691.654805009699</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3315,7 +3366,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1940.546519116</v>
+        <v>5109.0523263543</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3323,7 +3374,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>2544.1929848693</v>
+        <v>2059.2923423997</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3331,7 +3382,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>767469.6990774819</v>
+        <v>1995.1892644401</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3339,7 +3390,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>16417.2059842253</v>
+        <v>777276.0046291421</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3347,7 +3398,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6021.122840665501</v>
+        <v>14200.8338211036</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3355,7 +3406,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>19039.2275618517</v>
+        <v>5582.6857759808</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3363,7 +3414,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>8042.1434184131</v>
+        <v>22043.4551485189</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3371,7 +3422,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>14635.054526756</v>
+        <v>7723.7464210512</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3379,7 +3430,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>3922.2244164923</v>
+        <v>14723.8570528076</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3387,7 +3438,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>16345.7540730271</v>
+        <v>3679.7845200637</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3395,7 +3446,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6225.6638480783</v>
+        <v>18559.8453181616</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3403,7 +3454,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>559.5514409780001</v>
+        <v>6459.7748513545</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3411,7 +3462,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>22665.7517510057</v>
+        <v>505.0709031335</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3419,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>20225.5085389801</v>
+        <v>22393.0965411748</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3427,7 +3478,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>632.9046643452</v>
+        <v>23012.7234326599</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3435,7 +3486,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>12359.8393763968</v>
+        <v>972.7048793333</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3443,7 +3494,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>32557.6112073765</v>
+        <v>10382.2676063193</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3451,7 +3502,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>8567.277724927999</v>
+        <v>25699.6463856599</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3459,7 +3510,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>417240.0094118789</v>
+        <v>9038.789579808701</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3467,7 +3518,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10350.506824964</v>
+        <v>413653.4835547127</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3475,7 +3526,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>4516.030838189</v>
+        <v>7923.416704286001</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3483,7 +3534,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1518.0251162358</v>
+        <v>4585.076875446901</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3491,7 +3542,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>9014.747951125901</v>
+        <v>1263.2202501748</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3499,7 +3550,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>58708.2700442855</v>
+        <v>8891.793361173999</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3507,7 +3558,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6586.258566283599</v>
+        <v>52723.8295175754</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3515,7 +3566,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6951.265230249301</v>
+        <v>6329.4764074702</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3523,7 +3574,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>437181.9617611997</v>
+        <v>7365.826304202499</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3531,7 +3582,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>132559.7181839645</v>
+        <v>438828.3909112118</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3539,7 +3590,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>26156.273381655</v>
+        <v>128043.6638886072</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3547,7 +3598,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>39970.93312531951</v>
+        <v>27703.2829235646</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3555,7 +3606,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>9017.754606955199</v>
+        <v>32878.5229598662</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3563,7 +3614,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>121085.236855309</v>
+        <v>7329.9497376251</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3571,7 +3622,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7213.513560747801</v>
+        <v>125076.0358023553</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3579,7 +3630,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>80381.91150493579</v>
+        <v>11340.2106605912</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3587,7 +3638,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>20796.6205424139</v>
+        <v>90279.7192608784</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3595,7 +3646,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>585984.8928975424</v>
+        <v>16177.0056778409</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3603,7 +3654,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>246967.0805566026</v>
+        <v>557786.236421759</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3611,7 +3662,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8602.8882684122</v>
+        <v>252635.9750483822</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3619,7 +3670,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>620.3568502964999</v>
+        <v>8841.8388134181</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3627,7 +3678,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>954.6886864584</v>
+        <v>456.7162020974</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3635,7 +3686,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1656.0729215435</v>
+        <v>781.8063005051</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3643,7 +3694,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>339017.8123412491</v>
+        <v>1108.9937547332</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3651,7 +3702,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>137590.542329113</v>
+        <v>305150.2613732847</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3659,7 +3710,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>97022.56059828011</v>
+        <v>127704.1886885103</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3667,7 +3718,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>3709.051398008</v>
+        <v>81696.6651529927</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3675,7 +3726,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>48369.13837138349</v>
+        <v>2826.7138655195</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3683,7 +3734,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>666.8205317436</v>
+        <v>38833.544943546</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3691,7 +3742,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1063090.069369336</v>
+        <v>636.3012318894999</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3699,7 +3750,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>708783.5973921638</v>
+        <v>1055552.869203085</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3707,7 +3758,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>68829.5004174442</v>
+        <v>711670.9632118992</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3715,7 +3766,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1615.3490763407</v>
+        <v>73710.9205606649</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3723,7 +3774,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>840.9189392032</v>
+        <v>1576.0261988335</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3731,7 +3782,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>43174.35712892981</v>
+        <v>1023.1021001239</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3739,7 +3790,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>82744.87332008578</v>
+        <v>40026.8221559277</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3747,7 +3798,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>203365.5372058176</v>
+        <v>65404.8094711844</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3755,7 +3806,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>89384.8373594187</v>
+        <v>194737.9146567381</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3763,7 +3814,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>62698.5120178332</v>
+        <v>79570.1957184443</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3771,7 +3822,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>26074.7460832304</v>
+        <v>58022.84700856059</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3779,7 +3830,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>27421.6892342495</v>
+        <v>37213.68658213261</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3787,7 +3838,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>44296.69401140649</v>
+        <v>27108.7850419105</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3795,7 +3846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>10931.1245284654</v>
+        <v>50013.7065902905</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3803,7 +3854,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5939.5784838052</v>
+        <v>10363.1141281038</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3811,7 +3862,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>87096.5047299427</v>
+        <v>7091.0839032245</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3819,7 +3870,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>29910.7076361184</v>
+        <v>108433.899550487</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3827,7 +3878,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>354306.471977466</v>
+        <v>35969.2382899906</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3835,7 +3886,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>354306.471977466</v>
+        <v>343881.905991014</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3843,7 +3894,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>331501.043411676</v>
+        <v>343881.905991014</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3851,7 +3902,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>22805.4285657983</v>
+        <v>310919.278636985</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3859,7 +3910,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5426497.309839074</v>
+        <v>32962.6273540328</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3867,7 +3918,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>4537096.482754087</v>
+        <v>5843555.696086099</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3875,7 +3926,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>2959832.855808329</v>
+        <v>4719748.590301357</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3883,7 +3934,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1836680.956140391</v>
+        <v>3166781.439384385</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3891,7 +3942,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>604431.16401967</v>
+        <v>2063079.32721705</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3899,7 +3950,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>518720.7356481064</v>
+        <v>562530.6503964688</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3907,7 +3958,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>680809.8712559623</v>
+        <v>541171.4617703441</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3915,7 +3966,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>475784.7608174364</v>
+        <v>715788.1159910313</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3923,7 +3974,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>136298.8822597976</v>
+        <v>522409.9323913753</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3931,7 +3982,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>68726.22817853189</v>
+        <v>122499.3348560428</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3939,7 +3990,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>394895.2214092204</v>
+        <v>70878.8487433894</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3947,7 +3998,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>312793.7161073406</v>
+        <v>348286.885881145</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3955,7 +4006,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>76984.78624080529</v>
+        <v>289566.4347010798</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3963,7 +4014,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5116.7190608932</v>
+        <v>55661.4139845333</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3971,7 +4022,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>501558.5342807881</v>
+        <v>3059.0371954981</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3979,7 +4030,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>347497.4926765421</v>
+        <v>488892.1490461087</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3987,7 +4038,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>61693.97949608541</v>
+        <v>338428.854581527</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3995,7 +4046,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>92367.062108215</v>
+        <v>56436.9593266113</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4003,7 +4054,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>889400.8270847967</v>
+        <v>94026.3351377521</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4011,7 +4062,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>889400.8270847967</v>
+        <v>1123807.10578483</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4019,7 +4070,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>665739.4537813489</v>
+        <v>1123807.10578483</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4027,7 +4078,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>223661.3733037837</v>
+        <v>853145.7103586106</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4035,7 +4086,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>2410481.124350638</v>
+        <v>270661.395426038</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4043,7 +4094,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>1939674.861458488</v>
+        <v>2196878.222108534</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4051,7 +4102,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>12450.0291809752</v>
+        <v>1753176.287318196</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4059,7 +4110,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>12450.0291809752</v>
+        <v>11626.2418342896</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4067,7 +4118,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>554938.5119814473</v>
+        <v>11626.2418342896</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4075,7 +4126,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>153016.2371149917</v>
+        <v>489567.9374786669</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4083,7 +4134,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>107322.7837968131</v>
+        <v>128297.1929584019</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4091,7 +4142,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>73307.50302163771</v>
+        <v>108740.242836551</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4099,7 +4150,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>100265.1088331023</v>
+        <v>61093.3688274258</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4107,7 +4158,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>57218.7894449539</v>
+        <v>85927.08488837042</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4115,7 +4166,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>63808.0897696566</v>
+        <v>42814.6483683289</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4123,7 +4174,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>1010289.935069157</v>
+        <v>62695.399599353</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4131,7 +4182,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>220498.878153609</v>
+        <v>919948.9211597614</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4139,7 +4190,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>88713.22101022689</v>
+        <v>185653.0733025684</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4147,7 +4198,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>173310.0656067648</v>
+        <v>91073.75431102561</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4155,7 +4206,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>75270.9367527789</v>
+        <v>168688.9598535702</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4163,7 +4214,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>229825.6757579142</v>
+        <v>80733.71789719669</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4171,7 +4222,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>146213.9729826291</v>
+        <v>201757.5256354229</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4179,7 +4230,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>76457.18480525468</v>
+        <v>112202.3337900672</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4187,7 +4238,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>204836.5199297618</v>
+        <v>79839.55636988021</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4195,7 +4246,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>26494.3686191001</v>
+        <v>191481.7621229989</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4203,7 +4254,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>33373.1926374474</v>
+        <v>25926.9730881233</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4211,7 +4262,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>38096.1252662051</v>
+        <v>29996.4718778868</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4219,7 +4270,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>31803.4143257215</v>
+        <v>37182.9180329048</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4227,7 +4278,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>24728.4496196096</v>
+        <v>21789.3032116969</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4235,7 +4286,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>50340.96946158479</v>
+        <v>29109.5216569759</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4243,7 +4294,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>106249.497194492</v>
+        <v>47476.5742553616</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4251,7 +4302,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>85068.58468321219</v>
+        <v>89839.7700248305</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4259,7 +4310,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>21180.9125113228</v>
+        <v>71697.4244746636</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4267,7 +4318,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>50910.3681026141</v>
+        <v>18142.3455501066</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4275,7 +4326,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>50910.3681026141</v>
+        <v>50711.6546976301</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4283,7 +4334,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>470806.2628915435</v>
+        <v>50711.6546976301</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4291,7 +4342,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>139848.3872855041</v>
+        <v>443701.9347906995</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4299,7 +4350,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>139848.3872855041</v>
+        <v>133738.9744083633</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4307,7 +4358,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>241457.9289617749</v>
+        <v>133738.9744083633</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4315,7 +4366,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>241457.9289617749</v>
+        <v>226396.4183589932</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4323,7 +4374,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>73082.1293310926</v>
+        <v>226396.4183589932</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4331,7 +4382,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>73082.1293310926</v>
+        <v>71261.48779865079</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4339,7 +4390,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>16417.8173131013</v>
+        <v>71261.48779865079</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4347,7 +4398,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>16417.8173131013</v>
+        <v>12305.0542246733</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4355,7 +4406,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>14496796.4683751</v>
+        <v>12305.0542246733</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4363,7 +4414,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>13354729.28437431</v>
+        <v>14265369.35330355</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4371,7 +4422,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>10288458.01718584</v>
+        <v>13141555.27910721</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4379,7 +4430,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>10288458.01718584</v>
+        <v>10291582.60318302</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4387,7 +4438,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>1742849.697724427</v>
+        <v>10291582.60318302</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4395,7 +4446,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>1290556.62363006</v>
+        <v>1475228.487908256</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4403,7 +4454,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>101555.835548849</v>
+        <v>936292.5728642144</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4411,7 +4462,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>38090.7028271584</v>
+        <v>100920.6064548011</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4419,7 +4470,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>50754.9125841763</v>
+        <v>46510.08162645809</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4427,7 +4478,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>261891.6231343206</v>
+        <v>59945.1131559292</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4435,7 +4486,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>1323421.56946304</v>
+        <v>331560.11380696</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4443,7 +4494,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>769215.5615189084</v>
+        <v>1374744.188018303</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4451,7 +4502,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>289231.0445468015</v>
+        <v>783663.7464084247</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4459,7 +4510,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>264974.9633976359</v>
+        <v>317193.5124409139</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4467,7 +4518,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>327926.5077217566</v>
+        <v>273886.929168592</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4475,7 +4526,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>212530.1096820153</v>
+        <v>357277.4013921936</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4483,7 +4534,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>212530.1096820153</v>
+        <v>207777.474986544</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4491,7 +4542,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>61989.6154519503</v>
+        <v>207777.474986544</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4499,7 +4550,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>61989.6154519503</v>
+        <v>91026.3544348266</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4507,7 +4558,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>53406.7825878382</v>
+        <v>91026.3544348266</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4515,7 +4566,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>53406.7825878382</v>
+        <v>58473.57197050181</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4523,7 +4574,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>814140.6762847268</v>
+        <v>58473.57197050181</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4531,7 +4582,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>814140.6762847268</v>
+        <v>766536.672803849</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4539,7 +4590,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>79507.3226233812</v>
+        <v>766536.672803849</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4547,7 +4598,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>734633.3536621847</v>
+        <v>105662.3731160015</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4555,7 +4606,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>2944955.557392056</v>
+        <v>660874.2996878723</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4563,7 +4614,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>1131067.085941838</v>
+        <v>2437533.650335977</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4571,7 +4622,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>1131067.085941838</v>
+        <v>838989.7428099304</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4579,7 +4630,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>362158.3321006872</v>
+        <v>838989.7428099304</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4587,7 +4638,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>244687.684515955</v>
+        <v>265571.179294651</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4595,7 +4646,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>260664.5923327977</v>
+        <v>188664.950931111</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4603,7 +4654,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>201091.3115941737</v>
+        <v>199434.6490426097</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4611,7 +4662,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>62465.1653983572</v>
+        <v>150344.6295962746</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4619,7 +4670,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>280817.9678889848</v>
+        <v>34974.33394531641</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4627,7 +4678,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>280817.9678889848</v>
+        <v>268748.2628122356</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4635,7 +4686,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>113611.0251417928</v>
+        <v>268748.2628122356</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4643,7 +4694,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>103150.1994542439</v>
+        <v>108500.8503729254</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4651,7 +4702,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>64056.7432927799</v>
+        <v>104407.7899298827</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4659,7 +4710,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>636524.4406286727</v>
+        <v>55839.62250951651</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4667,7 +4718,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>430098.7230468231</v>
+        <v>563887.9773728356</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4675,7 +4726,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>172838.180490952</v>
+        <v>372898.0232780753</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4683,7 +4734,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>130178.1458214003</v>
+        <v>130554.058960505</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4691,7 +4742,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>94202.26992793329</v>
+        <v>133987.1163086073</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4699,7 +4750,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>32880.1268067027</v>
+        <v>87847.9104198436</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4707,7 +4758,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>206425.7175818613</v>
+        <v>20508.9375890005</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4715,7 +4766,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>57813.570429679</v>
+        <v>190989.9540950854</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4723,7 +4774,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>10828.6215190113</v>
+        <v>48048.5045384407</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4731,7 +4782,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>93534.5120319183</v>
+        <v>8502.296905943402</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4739,7 +4790,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>44249.0136013317</v>
+        <v>89779.0205070864</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4747,7 +4798,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>367917.6684389227</v>
+        <v>44660.1321435945</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4755,7 +4806,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>292495.2139409842</v>
+        <v>275634.2945046531</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4763,7 +4814,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>235439.9846900168</v>
+        <v>206962.4157630821</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4771,7 +4822,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>57055.2292512141</v>
+        <v>159662.6097806267</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4779,7 +4830,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>75422.45449794231</v>
+        <v>47299.8059824537</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4787,7 +4838,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>75422.45449794231</v>
+        <v>68671.8787416102</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4795,7 +4846,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>528628.3944911752</v>
+        <v>68671.8787416102</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4803,7 +4854,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>355832.9436703111</v>
+        <v>490273.372834991</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4811,7 +4862,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>203351.4241544241</v>
+        <v>322880.3656360183</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4819,7 +4870,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>12155.2185675531</v>
+        <v>180345.6528379317</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4827,7 +4878,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5176.9853985199</v>
+        <v>12821.1332364766</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4835,7 +4886,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>135149.3155498248</v>
+        <v>3953.2896268515</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4843,7 +4894,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>172795.4508208</v>
+        <v>125760.289934647</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4851,7 +4902,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>172795.4508208</v>
+        <v>167393.0071987659</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4859,7 +4910,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>2774464.506205336</v>
+        <v>167393.0071987659</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4867,7 +4918,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>748938.0064252276</v>
+        <v>2618728.229074907</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4875,7 +4926,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>748938.0064252276</v>
+        <v>750256.8491766206</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4883,7 +4934,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>397372.9124656621</v>
+        <v>750256.8491766206</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4891,7 +4942,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>273986.7851446504</v>
+        <v>402911.0756446033</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4899,7 +4950,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>77578.3088148</v>
+        <v>239715.9159010448</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4907,7 +4958,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>2025526.499779646</v>
+        <v>107629.8576308929</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4915,7 +4966,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>2025526.499779646</v>
+        <v>1868471.379898388</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4923,7 +4974,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>817223.5785474404</v>
+        <v>1868471.379898388</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4931,7 +4982,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>688398.4254819431</v>
+        <v>650469.9306030403</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4939,7 +4990,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>73504.74600282269</v>
+        <v>631174.2491606541</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4947,7 +4998,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>153719.2505017958</v>
+        <v>57682.4831197719</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4955,7 +5006,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>292680.4992447084</v>
+        <v>152112.705339989</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4963,7 +5014,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7435007.167515456</v>
+        <v>377032.0116753881</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4971,7 +5022,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6061212.478746105</v>
+        <v>7518980.265611567</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4979,7 +5030,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>2001737.386513202</v>
+        <v>5884870.073293251</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4987,7 +5038,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>1180385.325113953</v>
+        <v>1829619.219789151</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4995,7 +5046,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>821352.061399115</v>
+        <v>1111733.991350454</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5003,7 +5054,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>101708.400837763</v>
+        <v>717885.228438457</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5011,7 +5062,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>101708.400837763</v>
+        <v>118836.403280502</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -5019,7 +5070,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>132713.509867926</v>
+        <v>118836.403280502</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -5027,7 +5078,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>132713.509867926</v>
+        <v>123649.2885512875</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -5035,7 +5086,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>201216.4609508354</v>
+        <v>123649.2885512875</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -5043,7 +5094,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>177474.9513089687</v>
+        <v>217156.8602962064</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -5051,7 +5102,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>23741.5096418717</v>
+        <v>189962.2032782075</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -5059,7 +5110,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>1471878.898376773</v>
+        <v>27194.6570180047</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -5067,7 +5118,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>734181.2608958973</v>
+        <v>1308580.96288679</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -5075,7 +5126,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>164552.0289146891</v>
+        <v>637526.821849563</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -5083,7 +5134,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>12781.1875949285</v>
+        <v>253757.1642389746</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -5091,7 +5142,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>747843.3726657927</v>
+        <v>13028.6902297631</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -5099,7 +5150,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>747843.3726657927</v>
+        <v>636939.8464770792</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -5107,7 +5158,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>1404114.44953267</v>
+        <v>636939.8464770792</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -5115,7 +5166,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>251710.1453675829</v>
+        <v>1650087.49200986</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -5123,7 +5174,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>102970.8023841822</v>
+        <v>348468.6136688743</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -5131,7 +5182,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>755815.93455623</v>
+        <v>150952.0325019901</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -5139,7 +5190,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>34502.6339237825</v>
+        <v>801459.07450346</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -5147,7 +5198,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>259114.9333024304</v>
+        <v>34726.1196632808</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -5155,7 +5206,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>1373794.688770042</v>
+        <v>314481.6516736198</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -5163,7 +5214,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>305959.5631904053</v>
+        <v>1634110.192319022</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5171,7 +5222,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>284808.3262732538</v>
+        <v>260250.0279887129</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -5179,7 +5230,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>21151.2369171201</v>
+        <v>247560.056207533</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5187,7 +5238,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>86496.81925786141</v>
+        <v>12689.9717811844</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -5195,7 +5246,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>54527.47692874439</v>
+        <v>78087.26820480439</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -5203,7 +5254,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>31969.342329154</v>
+        <v>39375.7272648439</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -5211,7 +5262,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>318381.0785552047</v>
+        <v>38711.5409399511</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5219,7 +5270,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>318381.0785552047</v>
+        <v>435670.7411449056</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5227,7 +5278,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>49163.0630633078</v>
+        <v>435670.7411449056</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5235,7 +5286,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>49163.0630633078</v>
+        <v>21723.1098729114</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5243,7 +5294,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>576286.4886716371</v>
+        <v>21723.1098729114</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5251,7 +5302,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>349373.9888741986</v>
+        <v>794091.2069869343</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5259,7 +5310,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>64817.5086793053</v>
+        <v>435777.4407896174</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5267,7 +5318,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>47464.0446292116</v>
+        <v>79416.6301894504</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5275,7 +5326,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>114630.9464890013</v>
+        <v>85537.2995843161</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5283,7 +5334,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>37507.6760315389</v>
+        <v>193359.8364236629</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5291,7 +5342,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>37507.6760315389</v>
+        <v>44287.8381209504</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5299,7 +5350,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>1713799.406701279</v>
+        <v>44287.8381209504</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5307,7 +5358,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>55957.8486221378</v>
+        <v>1857257.479411946</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5315,7 +5366,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>55957.8486221378</v>
+        <v>48565.6385756252</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5323,7 +5374,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>55957.8486221378</v>
+        <v>48565.6385756252</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5331,7 +5382,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>1657841.558078859</v>
+        <v>48565.6385756252</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5339,7 +5390,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>77465.0976228716</v>
+        <v>1808691.840836268</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5347,7 +5398,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>77465.0976228716</v>
+        <v>117384.1769942627</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5355,7 +5406,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>656518.4260099236</v>
+        <v>117384.1769942627</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5363,7 +5414,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>224379.020960493</v>
+        <v>867628.2921496774</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5371,7 +5422,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>264107.8590770543</v>
+        <v>775393.2272716709</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5379,7 +5430,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>14873.3284952791</v>
+        <v>45133.09947381391</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5387,7 +5438,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>153158.217477094</v>
+        <v>47101.96540419541</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5395,7 +5446,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>632047.2423178807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5403,7 +5454,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>192003.826269638</v>
+        <v>775679.4965853564</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5411,7 +5462,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>340410.7386431335</v>
+        <v>676952.039770299</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5419,7 +5470,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>99632.6774051773</v>
+        <v>98727.4568151743</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5427,7 +5478,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>291810.7921287232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5435,7 +5486,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>54913.1071020713</v>
+        <v>47999.8751072604</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5443,7 +5494,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>236897.6850266575</v>
+        <v>34622.331944445</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5451,7 +5502,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>6517703.580745897</v>
+        <v>13377.5431628175</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5459,7 +5510,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>914184.5842914596</v>
+        <v>5802521.24651969</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5467,7 +5518,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>312405.08405326</v>
+        <v>558350.1920670064</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5475,7 +5526,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>312405.08405326</v>
+        <v>161561.256341342</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5483,7 +5534,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>86266.8170776265</v>
+        <v>161561.256341342</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5491,7 +5542,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>86266.8170776265</v>
+        <v>61961.77624620761</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5499,7 +5550,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>395365.6560920669</v>
+        <v>61961.77624620761</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5507,7 +5558,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>250446.6437892778</v>
+        <v>276410.8327848854</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5515,7 +5566,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>144919.0123025937</v>
+        <v>165764.7388950748</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5523,7 +5574,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>120147.0270680439</v>
+        <v>110646.0938896943</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5531,7 +5582,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>49959.8043604079</v>
+        <v>58416.3266946846</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5539,7 +5590,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>49126.1224901134</v>
+        <v>22504.9693748077</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5547,7 +5598,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>21061.1002174436</v>
+        <v>22688.9075644927</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5555,7 +5606,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>1387338.132784159</v>
+        <v>13222.4497554019</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5563,7 +5614,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>201973.1255670026</v>
+        <v>1207245.241496709</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5571,7 +5622,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>201973.1255670026</v>
+        <v>189712.2157763581</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5579,7 +5630,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>268414.705830991</v>
+        <v>189712.2157763581</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5587,7 +5638,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>121758.8901291168</v>
+        <v>213056.8022070994</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5595,7 +5646,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>12843.2620252551</v>
+        <v>110867.8036702033</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5603,7 +5654,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>55998.8614602444</v>
+        <v>13812.8844348196</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5611,7 +5662,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>77813.69221631929</v>
+        <v>25606.4427795773</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5619,7 +5670,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>222044.9265093554</v>
+        <v>62769.6713224559</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5627,7 +5678,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>95000.11884673499</v>
+        <v>189706.751567419</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5635,7 +5686,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>104598.2609314406</v>
+        <v>68190.35060993851</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5643,7 +5694,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>22446.5467310912</v>
+        <v>97427.88520746701</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5651,7 +5702,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>340134.844628405</v>
+        <v>24088.5157499687</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5659,7 +5710,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>340134.844628405</v>
+        <v>300389.7373503538</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5667,7 +5718,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>354770.5302477959</v>
+        <v>300389.7373503538</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5675,7 +5726,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>209772.6226962424</v>
+        <v>314379.7345952037</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5683,7 +5734,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>144997.9075514856</v>
+        <v>192680.2566124762</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5691,7 +5742,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>1910820.883051233</v>
+        <v>121699.4779827154</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5699,7 +5750,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>966554.6561952792</v>
+        <v>1950385.584388407</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5707,7 +5758,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>35959.7986976075</v>
+        <v>1072517.65273053</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5715,7 +5766,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>283149.6494303539</v>
+        <v>35679.9094304049</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5723,7 +5774,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>123023.4271935566</v>
+        <v>349530.5986426391</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5731,7 +5782,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>46868.1261450503</v>
+        <v>125674.3674430833</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5739,7 +5790,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>138373.6485454249</v>
+        <v>55527.9327501654</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5747,7 +5798,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>132169.5803060309</v>
+        <v>162603.2272527888</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5755,7 +5806,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>75709.8602975839</v>
+        <v>128687.5540645887</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5763,7 +5814,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>16656.0883605474</v>
+        <v>83114.4037675702</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5771,7 +5822,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>114644.4772193993</v>
+        <v>20648.7534104156</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5779,7 +5830,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>846900.2407842459</v>
+        <v>111050.9059690918</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5787,7 +5838,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>189358.7567859973</v>
+        <v>792673.287999751</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5795,7 +5846,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>48766.18210113561</v>
+        <v>175628.7397314429</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5803,7 +5854,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>49163.0893981584</v>
+        <v>45576.1634915009</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5811,7 +5862,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>340315.4048054194</v>
+        <v>61798.45323086721</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5819,7 +5870,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>44345.6569076197</v>
+        <v>336273.2406020324</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5827,7 +5878,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>93133.8975093374</v>
+        <v>24391.2549798393</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5835,7 +5886,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>4224.6263586161</v>
+        <v>87133.6910598455</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5843,7 +5894,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>17974.5243846268</v>
+        <v>6007.2772288846</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5851,7 +5902,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>59618.1025332766</v>
+        <v>18157.1465876633</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5859,7 +5910,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>97365.98607259529</v>
+        <v>37707.3210881244</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5867,7 +5918,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>97365.98607259529</v>
+        <v>85194.6436588263</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5875,7 +5926,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>697112.3971010633</v>
+        <v>85194.6436588263</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5883,7 +5934,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>204466.887631556</v>
+        <v>580413.9411692305</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5891,7 +5942,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>204466.887631556</v>
+        <v>166184.8896946308</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5899,7 +5950,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>346013.9076112272</v>
+        <v>166184.8896946308</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5907,7 +5958,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>65982.5073113237</v>
+        <v>286838.6011547109</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5915,7 +5966,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>280031.4002999333</v>
+        <v>41180.4562350357</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5923,7 +5974,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>146631.6018584331</v>
+        <v>245658.1449196459</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5931,7 +5982,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>55392.42798339461</v>
+        <v>127390.4503201312</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -5939,7 +5990,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>91239.17387506409</v>
+        <v>47714.8493105073</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -5947,7 +5998,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>1608247.583518048</v>
+        <v>79675.60100959719</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -5955,7 +6006,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>1608247.583518048</v>
+        <v>1506126.287399307</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -5963,7 +6014,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>1608247.583518048</v>
+        <v>1506126.287399307</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -5971,7 +6022,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>397180.3598517774</v>
+        <v>1506126.287399307</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -5979,7 +6030,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>397180.3598517774</v>
+        <v>491394.1503751582</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -5987,7 +6038,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>397180.3598517774</v>
+        <v>491394.1503751582</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -5995,7 +6046,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>88467.27402393641</v>
+        <v>491394.1503751582</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -6003,7 +6054,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>92140.5611172232</v>
+        <v>134953.2780501222</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -6011,7 +6062,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>104173.0731355794</v>
+        <v>72506.7754402288</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -6019,7 +6070,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>112399.4515748559</v>
+        <v>178849.4291497145</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -6027,7 +6078,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>2628444.355144945</v>
+        <v>105084.6677351631</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -6035,7 +6086,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>1283395.796644043</v>
+        <v>2753785.632630215</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -6043,7 +6094,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>721522.991914685</v>
+        <v>1182909.566989497</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -6051,7 +6102,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>32730.400530778</v>
+        <v>639830.3491739201</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -6059,7 +6110,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>47673.4401699198</v>
+        <v>34494.0861422844</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -6067,7 +6118,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>137744.3510437174</v>
+        <v>43050.6449823688</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -6075,7 +6126,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>45471.80209693519</v>
+        <v>115497.5119627458</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -6083,7 +6134,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>70397.1814932697</v>
+        <v>40989.9130649017</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -6091,7 +6142,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>37372.0759133016</v>
+        <v>57952.89357608581</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -6099,7 +6150,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>350133.7406666931</v>
+        <v>33867.0568666377</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -6107,7 +6158,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>561872.8047295137</v>
+        <v>313978.2425785799</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -6115,7 +6166,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>561872.8047295137</v>
+        <v>543079.2178158958</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -6123,7 +6174,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>399389.7681951543</v>
+        <v>543079.2178158958</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -6131,7 +6182,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>399389.7681951543</v>
+        <v>418313.703005717</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -6139,7 +6190,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>246976.8807819786</v>
+        <v>418313.703005717</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -6147,7 +6198,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>127544.7502039587</v>
+        <v>228799.5864455789</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -6155,7 +6206,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>24868.1372091056</v>
+        <v>150475.9615070462</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -6163,7 +6214,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>945658.790305229</v>
+        <v>39038.15505318101</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -6171,7 +6222,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>228452.0306614529</v>
+        <v>1152562.362634944</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -6179,7 +6230,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>228452.0306614529</v>
+        <v>471807.8000957236</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -6187,7 +6238,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>235683.5116245807</v>
+        <v>471807.8000957236</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -6195,7 +6246,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>235683.5116245807</v>
+        <v>247721.5897711017</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -6203,7 +6254,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>161667.5856295202</v>
+        <v>247721.5897711017</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -6211,7 +6262,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>9138.086554072201</v>
+        <v>162938.7045795289</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -6219,7 +6270,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>45835.0959003615</v>
+        <v>7918.5337000027</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -6227,7 +6278,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>62965.4640415989</v>
+        <v>57195.44014812329</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -6235,7 +6286,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>8973.580166674201</v>
+        <v>50089.62667400649</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -6243,7 +6294,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>34755.3589668104</v>
+        <v>8475.3293583388</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -6251,7 +6302,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>319855.6623905687</v>
+        <v>39259.7746991945</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -6259,7 +6310,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>319855.6623905687</v>
+        <v>270094.2681878823</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -6267,7 +6318,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>2799289.331255021</v>
+        <v>270094.2681878823</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -6275,7 +6326,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>2799289.331255021</v>
+        <v>3111722.103664153</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -6283,7 +6334,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>2799289.331255021</v>
+        <v>3111722.103664153</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -6291,7 +6342,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>2799289.331255021</v>
+        <v>3111722.103664153</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -6299,7 +6350,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>2408370.553955071</v>
+        <v>3111722.103664153</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -6307,7 +6358,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>390918.7772963562</v>
+        <v>2824836.823366893</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -6315,7 +6366,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>96738.8659678054</v>
+        <v>286885.28029859</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -6323,7 +6374,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>66619.75788681681</v>
+        <v>116244.7305423412</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -6331,7 +6382,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>3938.3653098241</v>
+        <v>31969.252027016</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -6339,7 +6390,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>1344.3026432776</v>
+        <v>1668.9970705946</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -6347,7 +6398,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>758.4886867143</v>
+        <v>60000.9522384997</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -6355,7 +6406,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>1241.6124196646</v>
+        <v>4596.8876646039</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -6363,7 +6414,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>1612.5385820215</v>
+        <v>1295.1384559137</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -6371,7 +6422,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>203357.1126528995</v>
+        <v>981.6596189963</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -6379,7 +6430,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>16536.3915837345</v>
+        <v>1109.8066873177</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -6387,7 +6438,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>127575.2344035578</v>
+        <v>1446.9763229349</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -6395,7 +6446,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>1550.676278379</v>
+        <v>185002.2041876814</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -6403,7 +6454,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>150502.7815509238</v>
+        <v>9217.7718522619</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -6411,7 +6462,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>31985.5692967555</v>
+        <v>790.7579745524</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -6419,7 +6470,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>11834.0067266959</v>
+        <v>14913.6469763826</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -6427,7 +6478,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>287358.1132285493</v>
+        <v>124930.3395629885</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -6435,7 +6486,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>2456.2680155428</v>
+        <v>142140.104465936</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -6443,7 +6494,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>5677.172458571499</v>
+        <v>404.9336408563</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -6451,7 +6502,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>15892.5609510555</v>
+        <v>1813.0671691631</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -6459,7 +6510,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>6551.7899871228</v>
+        <v>31880.466398544</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -6467,7 +6518,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>4790.6847635098</v>
+        <v>2502.1998927443</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -6475,7 +6526,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>2228.8174890364</v>
+        <v>385.2829072695</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -6483,7 +6534,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>2459.9824090198</v>
+        <v>32095.4624422763</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -6491,7 +6542,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>2530.4190522958</v>
+        <v>14223.7070162794</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -6499,7 +6550,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>1661.0170286797</v>
+        <v>2095.6079814495</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -6507,7 +6558,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>1381.9129896587</v>
+        <v>1724.9068483467</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -6515,7 +6566,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>29910.7076361184</v>
+        <v>395.9923395181</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -6523,7 +6574,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>898733.2898106754</v>
+        <v>9481.698343086</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -6531,7 +6582,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>9734</v>
+        <v>901.2781173752001</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -6539,7 +6590,143 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>22981</v>
+        <v>2392.9783397711</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>879.2934564606001</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>11189.3550707459</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>251697.4138823591</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>2599.1282989584</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>4068.7381058488</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>14502.3250939055</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>5816.4994229863</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>4168.3839708679</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>3182.7628660923</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>2060.3807118981</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>3313.4138785022</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>1566.6540945544</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>1347.6640112705</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>35969.2382899906</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>891283.986088669</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>9955</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>22315</v>
       </c>
     </row>
   </sheetData>
